--- a/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M-Czech_version.xlsx
+++ b/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M-Czech_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43BA18-E6F9-42D2-9551-997F6DE8FE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70787FF3-06D5-4AA2-944D-C8368B21F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -4034,12 +4034,6 @@
     <t>SEGURIDAD MEDIOAMBIENTAL Y FÍSICA [Artículo 21, Apartado 2, Letras C), E) e I), de la directiva (UE) 2022/2555]</t>
   </si>
   <si>
-    <t>name(cz)</t>
-  </si>
-  <si>
-    <t>description(cz)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Politika bezpečnosti sítí a informačních systémů (čl. 21 odst. 2 písm. a) směrnice (EU) 2022/2555)</t>
   </si>
   <si>
@@ -5485,21 +5479,6 @@
     <t>Příslušné subjekty opatření ke kontrole fyzického přístupu testují, přezkoumávají a v případě potřeby aktualizují pravidelně nebo po významných incidentech nebo významných změnách operací nebo rizik.</t>
   </si>
   <si>
-    <t>library_name[cz]</t>
-  </si>
-  <si>
-    <t>library_description[cz]</t>
-  </si>
-  <si>
-    <t>library_copyright[cz]</t>
-  </si>
-  <si>
-    <t>framework_name[cz]</t>
-  </si>
-  <si>
-    <t>framework_description[cz]</t>
-  </si>
-  <si>
     <t>EVROPSKÁ KOMISE</t>
   </si>
   <si>
@@ -5507,6 +5486,27 @@
   </si>
   <si>
     <t>Prováděcí nařízení 2024/2690 kterým se stanoví pravidla pro uplatňování směrnice (EU) 2022/2555, pokud jde o technické a metodické požadavky na opatření k řízení kybernetických bezpečnostních rizik a bližší upřesnění případů, v nichž se incident považuje za významný, pokud jde o provozovatele DNS, registry domén nejvyšší úrovně, poskytovatele služeb cloud computingu, poskytovatele služeb datových center, poskytovatele sítí pro doručování obsahu, poskytovatele řízených služeb, poskytovatele řízených bezpečnostních služeb, poskytovatele on-line tržišť, internetových vyhledávačů a služeb platforem sociálních sítí a poskytovatele služeb vytvářejících důvěru. https://eur-lex.europa.eu/legal-content/CS/TXT/HTML/?uri=OJ:L_202402690</t>
+  </si>
+  <si>
+    <t>name[cs]</t>
+  </si>
+  <si>
+    <t>description[cs]</t>
+  </si>
+  <si>
+    <t>library_name[cs]</t>
+  </si>
+  <si>
+    <t>library_description[cs]</t>
+  </si>
+  <si>
+    <t>library_copyright[cs]</t>
+  </si>
+  <si>
+    <t>framework_name[cs]</t>
+  </si>
+  <si>
+    <t>framework_description[cs]</t>
   </si>
 </sst>
 </file>
@@ -5553,17 +5553,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5604,7 +5602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5644,9 +5642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5659,8 +5654,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5999,7 +6000,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6022,7 +6023,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6166,42 +6167,42 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63">
       <c r="A21" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="63">
       <c r="A24" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -6213,8 +6214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018D80E-CD86-A646-A799-4CD19C4C2182}">
   <dimension ref="A1:CZ440"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6225,7 +6226,7 @@
     <col min="7" max="7" width="55.875" customWidth="1"/>
     <col min="8" max="8" width="73" style="14" customWidth="1"/>
     <col min="9" max="9" width="56.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="76.625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="76.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104">
@@ -6250,14 +6251,14 @@
       <c r="G1" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>1335</v>
+      <c r="I1" s="22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="2" spans="1:104" s="8" customFormat="1" ht="47.25">
@@ -6276,10 +6277,10 @@
         <v>1319</v>
       </c>
       <c r="H2" s="14"/>
-      <c r="I2" s="21" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="I2" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J2" s="17"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -6391,10 +6392,10 @@
         <v>896</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="20" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J3" s="17"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -6503,8 +6504,8 @@
       <c r="H4" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>1338</v>
+      <c r="J4" s="17" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="5" spans="1:104" ht="31.5">
@@ -6523,8 +6524,8 @@
       <c r="H5" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>1339</v>
+      <c r="J5" s="17" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="6" spans="1:104" ht="31.5">
@@ -6543,8 +6544,8 @@
       <c r="H6" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>1340</v>
+      <c r="J6" s="17" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="7" spans="1:104">
@@ -6563,8 +6564,8 @@
       <c r="H7" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>1341</v>
+      <c r="J7" s="17" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="8" spans="1:104" ht="31.5">
@@ -6583,8 +6584,8 @@
       <c r="H8" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>1342</v>
+      <c r="J8" s="17" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="9" spans="1:104" ht="47.25">
@@ -6603,8 +6604,8 @@
       <c r="H9" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>1343</v>
+      <c r="J9" s="17" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="10" spans="1:104" ht="31.5">
@@ -6623,8 +6624,8 @@
       <c r="H10" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>1344</v>
+      <c r="J10" s="17" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="11" spans="1:104">
@@ -6646,8 +6647,8 @@
       <c r="H11" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>1345</v>
+      <c r="J11" s="17" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="12" spans="1:104" ht="31.5">
@@ -6663,12 +6664,12 @@
       <c r="E12" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
       <c r="H12" s="14" t="s">
         <v>905</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>1346</v>
+      <c r="J12" s="17" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:104">
@@ -6687,8 +6688,8 @@
       <c r="H13" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>1347</v>
+      <c r="J13" s="17" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="14" spans="1:104" ht="47.25">
@@ -6707,8 +6708,8 @@
       <c r="H14" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>1348</v>
+      <c r="J14" s="17" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="15" spans="1:104" ht="31.5">
@@ -6727,8 +6728,8 @@
       <c r="H15" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>1349</v>
+      <c r="J15" s="17" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="16" spans="1:104" ht="67.5" customHeight="1">
@@ -6747,8 +6748,8 @@
       <c r="H16" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>1350</v>
+      <c r="J16" s="17" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="17" spans="1:104" s="10" customFormat="1">
@@ -6769,10 +6770,10 @@
         <v>910</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="20" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J17" s="18"/>
+      <c r="I17" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J17" s="17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -6887,8 +6888,8 @@
       <c r="H18" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>1352</v>
+      <c r="J18" s="17" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:104" ht="63">
@@ -6907,8 +6908,8 @@
       <c r="H19" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>1353</v>
+      <c r="J19" s="17" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="20" spans="1:104" ht="31.5">
@@ -6927,8 +6928,8 @@
       <c r="H20" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>1354</v>
+      <c r="J20" s="17" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="21" spans="1:104" ht="47.25">
@@ -6947,8 +6948,8 @@
       <c r="H21" s="14" t="s">
         <v>913</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>1355</v>
+      <c r="J21" s="17" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="22" spans="1:104" ht="31.5">
@@ -6967,8 +6968,8 @@
       <c r="H22" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>1356</v>
+      <c r="J22" s="17" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="23" spans="1:104" ht="63">
@@ -6987,8 +6988,8 @@
       <c r="H23" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="J23" s="18" t="s">
-        <v>1357</v>
+      <c r="J23" s="17" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="24" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -7009,10 +7010,10 @@
         <v>1320</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="21" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J24" s="18"/>
+      <c r="I24" s="20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J24" s="17"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -7126,10 +7127,10 @@
         <v>917</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="20" t="s">
-        <v>1359</v>
-      </c>
-      <c r="J25" s="18"/>
+      <c r="I25" s="19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
@@ -7241,8 +7242,8 @@
       <c r="H26" s="14" t="s">
         <v>918</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>1360</v>
+      <c r="J26" s="17" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="27" spans="1:104" ht="94.5">
@@ -7264,8 +7265,8 @@
       <c r="H27" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="J27" s="18" t="s">
-        <v>1361</v>
+      <c r="J27" s="17" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="28" spans="1:104">
@@ -7284,8 +7285,8 @@
       <c r="H28" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>1362</v>
+      <c r="J28" s="17" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="29" spans="1:104" ht="31.5">
@@ -7304,8 +7305,8 @@
       <c r="H29" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="J29" s="18" t="s">
-        <v>1370</v>
+      <c r="J29" s="17" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="30" spans="1:104">
@@ -7324,8 +7325,8 @@
       <c r="H30" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="J30" s="18" t="s">
-        <v>1369</v>
+      <c r="J30" s="17" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="31" spans="1:104" ht="78.75">
@@ -7344,8 +7345,8 @@
       <c r="H31" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="J31" s="18" t="s">
-        <v>1363</v>
+      <c r="J31" s="17" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="32" spans="1:104" ht="63">
@@ -7364,8 +7365,8 @@
       <c r="H32" s="14" t="s">
         <v>924</v>
       </c>
-      <c r="J32" s="18" t="s">
-        <v>1364</v>
+      <c r="J32" s="17" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="33" spans="1:104" ht="31.5">
@@ -7384,8 +7385,8 @@
       <c r="H33" s="14" t="s">
         <v>925</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>1365</v>
+      <c r="J33" s="17" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="34" spans="1:104" ht="31.5">
@@ -7404,8 +7405,8 @@
       <c r="H34" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>1366</v>
+      <c r="J34" s="17" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="35" spans="1:104" ht="31.5">
@@ -7424,8 +7425,8 @@
       <c r="H35" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>1367</v>
+      <c r="J35" s="17" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="36" spans="1:104" ht="47.25">
@@ -7444,8 +7445,8 @@
       <c r="H36" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="J36" s="18" t="s">
-        <v>1368</v>
+      <c r="J36" s="17" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="37" spans="1:104" ht="47.25">
@@ -7464,8 +7465,8 @@
       <c r="H37" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>1371</v>
+      <c r="J37" s="17" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="38" spans="1:104" ht="94.5">
@@ -7487,8 +7488,8 @@
       <c r="H38" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>1372</v>
+      <c r="J38" s="17" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="39" spans="1:104" ht="63">
@@ -7507,8 +7508,8 @@
       <c r="H39" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>1373</v>
+      <c r="J39" s="17" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="40" spans="1:104" s="10" customFormat="1">
@@ -7529,10 +7530,10 @@
         <v>932</v>
       </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="20" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J40" s="18"/>
+      <c r="I40" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J40" s="17"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -7644,8 +7645,8 @@
       <c r="H41" s="16" t="s">
         <v>933</v>
       </c>
-      <c r="J41" s="18" t="s">
-        <v>1375</v>
+      <c r="J41" s="17" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="42" spans="1:104" ht="78.75">
@@ -7664,8 +7665,8 @@
       <c r="H42" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="J42" s="18" t="s">
-        <v>1376</v>
+      <c r="J42" s="17" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="43" spans="1:104" ht="47.25">
@@ -7684,8 +7685,8 @@
       <c r="H43" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="J43" s="18" t="s">
-        <v>1377</v>
+      <c r="J43" s="17" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="44" spans="1:104" s="10" customFormat="1">
@@ -7706,10 +7707,10 @@
         <v>936</v>
       </c>
       <c r="H44" s="14"/>
-      <c r="I44" s="20" t="s">
-        <v>1378</v>
-      </c>
-      <c r="J44" s="18"/>
+      <c r="I44" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J44" s="17"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
@@ -7821,8 +7822,8 @@
       <c r="H45" s="14" t="s">
         <v>937</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>1379</v>
+      <c r="J45" s="17" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="46" spans="1:104" ht="126">
@@ -7841,8 +7842,8 @@
       <c r="H46" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="J46" s="18" t="s">
-        <v>1380</v>
+      <c r="J46" s="17" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="47" spans="1:104" ht="78.75">
@@ -7864,8 +7865,8 @@
       <c r="H47" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="J47" s="18" t="s">
-        <v>1381</v>
+      <c r="J47" s="17" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="48" spans="1:104" ht="47.25">
@@ -7884,8 +7885,8 @@
       <c r="H48" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="J48" s="18" t="s">
-        <v>1382</v>
+      <c r="J48" s="17" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="49" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -7906,10 +7907,10 @@
         <v>1321</v>
       </c>
       <c r="H49" s="14"/>
-      <c r="I49" s="21" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J49" s="18"/>
+      <c r="I49" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J49" s="17"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -8023,10 +8024,10 @@
         <v>941</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50" s="20" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J50" s="18"/>
+      <c r="I50" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J50" s="17"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -8138,8 +8139,8 @@
       <c r="H51" s="16" t="s">
         <v>942</v>
       </c>
-      <c r="J51" s="18" t="s">
-        <v>1385</v>
+      <c r="J51" s="17" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="52" spans="1:104" ht="47.25">
@@ -8161,8 +8162,8 @@
       <c r="H52" s="16" t="s">
         <v>943</v>
       </c>
-      <c r="J52" s="18" t="s">
-        <v>1386</v>
+      <c r="J52" s="17" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="53" spans="1:104" ht="31.5">
@@ -8184,8 +8185,8 @@
       <c r="H53" s="16" t="s">
         <v>944</v>
       </c>
-      <c r="J53" s="18" t="s">
-        <v>1387</v>
+      <c r="J53" s="17" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="54" spans="1:104" ht="31.5">
@@ -8204,8 +8205,8 @@
       <c r="H54" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="J54" s="18" t="s">
-        <v>1388</v>
+      <c r="J54" s="17" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="55" spans="1:104" ht="31.5">
@@ -8224,8 +8225,8 @@
       <c r="H55" s="16" t="s">
         <v>946</v>
       </c>
-      <c r="J55" s="18" t="s">
-        <v>1389</v>
+      <c r="J55" s="17" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="56" spans="1:104" ht="47.25">
@@ -8244,8 +8245,8 @@
       <c r="H56" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="J56" s="18" t="s">
-        <v>1390</v>
+      <c r="J56" s="17" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="57" spans="1:104" ht="63">
@@ -8264,8 +8265,8 @@
       <c r="H57" s="16" t="s">
         <v>948</v>
       </c>
-      <c r="J57" s="18" t="s">
-        <v>1391</v>
+      <c r="J57" s="17" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="58" spans="1:104" s="10" customFormat="1">
@@ -8286,10 +8287,10 @@
         <v>949</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="20" t="s">
-        <v>1392</v>
-      </c>
-      <c r="J58" s="18"/>
+      <c r="I58" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J58" s="17"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
@@ -8401,8 +8402,8 @@
       <c r="H59" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="J59" s="18" t="s">
-        <v>1393</v>
+      <c r="J59" s="17" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="60" spans="1:104" ht="63">
@@ -8421,8 +8422,8 @@
       <c r="H60" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="J60" s="18" t="s">
-        <v>1394</v>
+      <c r="J60" s="17" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="61" spans="1:104" ht="78.75">
@@ -8444,8 +8445,8 @@
       <c r="H61" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="J61" s="18" t="s">
-        <v>1395</v>
+      <c r="J61" s="17" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="62" spans="1:104">
@@ -8464,8 +8465,8 @@
       <c r="H62" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="J62" s="18" t="s">
-        <v>1396</v>
+      <c r="J62" s="17" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="63" spans="1:104" ht="31.5">
@@ -8484,8 +8485,8 @@
       <c r="H63" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="J63" s="18" t="s">
-        <v>1397</v>
+      <c r="J63" s="17" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="64" spans="1:104">
@@ -8504,8 +8505,8 @@
       <c r="H64" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="J64" s="18" t="s">
-        <v>1398</v>
+      <c r="J64" s="17" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="65" spans="1:104">
@@ -8524,8 +8525,8 @@
       <c r="H65" s="14" t="s">
         <v>956</v>
       </c>
-      <c r="J65" s="18" t="s">
-        <v>1399</v>
+      <c r="J65" s="17" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="66" spans="1:104" ht="31.5">
@@ -8544,8 +8545,8 @@
       <c r="H66" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="J66" s="18" t="s">
-        <v>1400</v>
+      <c r="J66" s="17" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="67" spans="1:104" ht="31.5">
@@ -8564,8 +8565,8 @@
       <c r="H67" s="14" t="s">
         <v>958</v>
       </c>
-      <c r="J67" s="18" t="s">
-        <v>1401</v>
+      <c r="J67" s="17" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="68" spans="1:104" ht="31.5">
@@ -8584,8 +8585,8 @@
       <c r="H68" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="J68" s="18" t="s">
-        <v>1402</v>
+      <c r="J68" s="17" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="69" spans="1:104">
@@ -8604,8 +8605,8 @@
       <c r="H69" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="J69" s="18" t="s">
-        <v>1403</v>
+      <c r="J69" s="17" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="70" spans="1:104">
@@ -8624,8 +8625,8 @@
       <c r="H70" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="J70" s="18" t="s">
-        <v>1404</v>
+      <c r="J70" s="17" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="71" spans="1:104">
@@ -8644,8 +8645,8 @@
       <c r="H71" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="J71" s="18" t="s">
-        <v>1405</v>
+      <c r="J71" s="17" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="72" spans="1:104">
@@ -8664,8 +8665,8 @@
       <c r="H72" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="J72" s="18" t="s">
-        <v>1406</v>
+      <c r="J72" s="17" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="73" spans="1:104">
@@ -8684,8 +8685,8 @@
       <c r="H73" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="J73" s="18" t="s">
-        <v>1407</v>
+      <c r="J73" s="17" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="74" spans="1:104" ht="94.5">
@@ -8704,8 +8705,8 @@
       <c r="H74" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="J74" s="18" t="s">
-        <v>1408</v>
+      <c r="J74" s="17" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="75" spans="1:104" ht="47.25">
@@ -8724,8 +8725,8 @@
       <c r="H75" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="J75" s="18" t="s">
-        <v>1409</v>
+      <c r="J75" s="17" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="76" spans="1:104" ht="110.25">
@@ -8744,8 +8745,8 @@
       <c r="H76" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="J76" s="18" t="s">
-        <v>1410</v>
+      <c r="J76" s="17" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="77" spans="1:104" ht="47.25">
@@ -8764,8 +8765,8 @@
       <c r="H77" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="J77" s="18" t="s">
-        <v>1411</v>
+      <c r="J77" s="17" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="78" spans="1:104" s="10" customFormat="1">
@@ -8786,10 +8787,10 @@
         <v>969</v>
       </c>
       <c r="H78" s="14"/>
-      <c r="I78" s="20" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J78" s="18"/>
+      <c r="I78" s="19" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J78" s="17"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -8901,8 +8902,8 @@
       <c r="H79" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="J79" s="18" t="s">
-        <v>1413</v>
+      <c r="J79" s="17" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="80" spans="1:104" ht="47.25">
@@ -8921,8 +8922,8 @@
       <c r="H80" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="J80" s="18" t="s">
-        <v>1414</v>
+      <c r="J80" s="17" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="81" spans="1:104" s="10" customFormat="1">
@@ -8943,10 +8944,10 @@
         <v>972</v>
       </c>
       <c r="H81" s="14"/>
-      <c r="I81" s="20" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J81" s="18"/>
+      <c r="I81" s="19" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J81" s="17"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
@@ -9058,8 +9059,8 @@
       <c r="H82" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="J82" s="18" t="s">
-        <v>1416</v>
+      <c r="J82" s="17" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="83" spans="1:104" ht="31.5">
@@ -9078,8 +9079,8 @@
       <c r="H83" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="J83" s="18" t="s">
-        <v>1417</v>
+      <c r="J83" s="17" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="84" spans="1:104" ht="47.25">
@@ -9098,8 +9099,8 @@
       <c r="H84" s="14" t="s">
         <v>975</v>
       </c>
-      <c r="J84" s="18" t="s">
-        <v>1418</v>
+      <c r="J84" s="17" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="85" spans="1:104" ht="31.5">
@@ -9118,8 +9119,8 @@
       <c r="H85" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="J85" s="18" t="s">
-        <v>1419</v>
+      <c r="J85" s="17" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="86" spans="1:104" ht="31.5">
@@ -9138,8 +9139,8 @@
       <c r="H86" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="J86" s="18" t="s">
-        <v>1420</v>
+      <c r="J86" s="17" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="87" spans="1:104">
@@ -9158,8 +9159,8 @@
       <c r="H87" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="J87" s="18" t="s">
-        <v>1422</v>
+      <c r="J87" s="17" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="88" spans="1:104" ht="31.5">
@@ -9178,8 +9179,8 @@
       <c r="H88" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="J88" s="18" t="s">
-        <v>1421</v>
+      <c r="J88" s="17" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="89" spans="1:104" s="10" customFormat="1">
@@ -9200,10 +9201,10 @@
         <v>980</v>
       </c>
       <c r="H89" s="14"/>
-      <c r="I89" s="20" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J89" s="18"/>
+      <c r="I89" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J89" s="17"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -9315,8 +9316,8 @@
       <c r="H90" s="14" t="s">
         <v>981</v>
       </c>
-      <c r="J90" s="18" t="s">
-        <v>1424</v>
+      <c r="J90" s="17" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="91" spans="1:104">
@@ -9332,8 +9333,8 @@
       <c r="H91" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="J91" s="18" t="s">
-        <v>1425</v>
+      <c r="J91" s="17" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="92" spans="1:104" ht="31.5">
@@ -9352,8 +9353,8 @@
       <c r="H92" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="J92" s="18" t="s">
-        <v>1426</v>
+      <c r="J92" s="17" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="93" spans="1:104">
@@ -9372,8 +9373,8 @@
       <c r="H93" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="J93" s="18" t="s">
-        <v>1427</v>
+      <c r="J93" s="17" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="94" spans="1:104">
@@ -9392,8 +9393,8 @@
       <c r="H94" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="J94" s="18" t="s">
-        <v>1428</v>
+      <c r="J94" s="17" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="95" spans="1:104">
@@ -9412,8 +9413,8 @@
       <c r="H95" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="J95" s="18" t="s">
-        <v>1429</v>
+      <c r="J95" s="17" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="96" spans="1:104" ht="47.25">
@@ -9432,8 +9433,8 @@
       <c r="H96" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="J96" s="18" t="s">
-        <v>1430</v>
+      <c r="J96" s="17" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="97" spans="1:104" ht="31.5">
@@ -9452,8 +9453,8 @@
       <c r="H97" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="J97" s="18" t="s">
-        <v>1431</v>
+      <c r="J97" s="17" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="98" spans="1:104" ht="47.25">
@@ -9475,8 +9476,8 @@
       <c r="H98" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="J98" s="18" t="s">
-        <v>1432</v>
+      <c r="J98" s="17" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="99" spans="1:104" ht="31.5">
@@ -9495,8 +9496,8 @@
       <c r="H99" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="J99" s="18" t="s">
-        <v>1433</v>
+      <c r="J99" s="17" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="100" spans="1:104" s="10" customFormat="1">
@@ -9517,10 +9518,10 @@
         <v>991</v>
       </c>
       <c r="H100" s="14"/>
-      <c r="I100" s="20" t="s">
-        <v>1434</v>
-      </c>
-      <c r="J100" s="18"/>
+      <c r="I100" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J100" s="17"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -9632,8 +9633,8 @@
       <c r="H101" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="J101" s="18" t="s">
-        <v>1435</v>
+      <c r="J101" s="17" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="102" spans="1:104" ht="63">
@@ -9652,8 +9653,8 @@
       <c r="H102" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="J102" s="18" t="s">
-        <v>1436</v>
+      <c r="J102" s="17" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="103" spans="1:104" ht="31.5">
@@ -9669,8 +9670,8 @@
       <c r="H103" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="J103" s="18" t="s">
-        <v>1437</v>
+      <c r="J103" s="17" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="104" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -9691,10 +9692,10 @@
         <v>1322</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="I104" s="21" t="s">
-        <v>1438</v>
-      </c>
-      <c r="J104" s="18"/>
+      <c r="I104" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J104" s="17"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -9808,10 +9809,10 @@
         <v>995</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="I105" s="20" t="s">
-        <v>1439</v>
-      </c>
-      <c r="J105" s="18"/>
+      <c r="I105" s="19" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J105" s="17"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -9923,8 +9924,8 @@
       <c r="H106" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="J106" s="18" t="s">
-        <v>1440</v>
+      <c r="J106" s="17" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="107" spans="1:104" ht="63">
@@ -9946,8 +9947,8 @@
       <c r="H107" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="J107" s="18" t="s">
-        <v>1441</v>
+      <c r="J107" s="17" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="108" spans="1:104">
@@ -9966,8 +9967,8 @@
       <c r="H108" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="J108" s="18" t="s">
-        <v>1442</v>
+      <c r="J108" s="17" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="109" spans="1:104">
@@ -9986,8 +9987,8 @@
       <c r="H109" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="J109" s="18" t="s">
-        <v>1443</v>
+      <c r="J109" s="17" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="110" spans="1:104">
@@ -10006,8 +10007,8 @@
       <c r="H110" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="J110" s="18" t="s">
-        <v>1444</v>
+      <c r="J110" s="17" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="111" spans="1:104">
@@ -10026,8 +10027,8 @@
       <c r="H111" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="J111" s="18" t="s">
-        <v>1445</v>
+      <c r="J111" s="17" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="112" spans="1:104">
@@ -10046,8 +10047,8 @@
       <c r="H112" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="J112" s="18" t="s">
-        <v>1446</v>
+      <c r="J112" s="17" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="113" spans="1:104" ht="31.5">
@@ -10066,8 +10067,8 @@
       <c r="H113" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="J113" s="18" t="s">
-        <v>1447</v>
+      <c r="J113" s="17" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="114" spans="1:104">
@@ -10086,8 +10087,8 @@
       <c r="H114" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="J114" s="18" t="s">
-        <v>1448</v>
+      <c r="J114" s="17" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="115" spans="1:104">
@@ -10106,8 +10107,8 @@
       <c r="H115" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="J115" s="18" t="s">
-        <v>1449</v>
+      <c r="J115" s="17" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="116" spans="1:104" ht="63">
@@ -10126,8 +10127,8 @@
       <c r="H116" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="J116" s="18" t="s">
-        <v>1450</v>
+      <c r="J116" s="17" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="117" spans="1:104" ht="78.75">
@@ -10146,8 +10147,8 @@
       <c r="H117" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="J117" s="18" t="s">
-        <v>1451</v>
+      <c r="J117" s="17" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="118" spans="1:104" s="10" customFormat="1">
@@ -10168,10 +10169,10 @@
         <v>1008</v>
       </c>
       <c r="H118" s="14"/>
-      <c r="I118" s="20" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J118" s="18"/>
+      <c r="I118" s="19" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J118" s="17"/>
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
@@ -10283,8 +10284,8 @@
       <c r="H119" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="J119" s="18" t="s">
-        <v>1453</v>
+      <c r="J119" s="17" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="120" spans="1:104" ht="47.25">
@@ -10306,8 +10307,8 @@
       <c r="H120" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="J120" s="18" t="s">
-        <v>1454</v>
+      <c r="J120" s="17" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="121" spans="1:104">
@@ -10326,8 +10327,8 @@
       <c r="H121" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="J121" s="18" t="s">
-        <v>1455</v>
+      <c r="J121" s="17" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="122" spans="1:104" ht="47.25">
@@ -10346,8 +10347,8 @@
       <c r="H122" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="J122" s="18" t="s">
-        <v>1456</v>
+      <c r="J122" s="17" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="123" spans="1:104" ht="63">
@@ -10366,8 +10367,8 @@
       <c r="H123" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="J123" s="18" t="s">
-        <v>1457</v>
+      <c r="J123" s="17" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="124" spans="1:104" ht="31.5">
@@ -10386,8 +10387,8 @@
       <c r="H124" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="J124" s="18" t="s">
-        <v>1458</v>
+      <c r="J124" s="17" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="125" spans="1:104">
@@ -10406,8 +10407,8 @@
       <c r="H125" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="J125" s="18" t="s">
-        <v>1459</v>
+      <c r="J125" s="17" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="126" spans="1:104">
@@ -10426,8 +10427,8 @@
       <c r="H126" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="J126" s="18" t="s">
-        <v>1460</v>
+      <c r="J126" s="17" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="127" spans="1:104" ht="31.5">
@@ -10446,8 +10447,8 @@
       <c r="H127" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="J127" s="18" t="s">
-        <v>1461</v>
+      <c r="J127" s="17" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="128" spans="1:104" ht="63">
@@ -10469,8 +10470,8 @@
       <c r="H128" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="J128" s="18" t="s">
-        <v>1462</v>
+      <c r="J128" s="17" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="129" spans="1:104">
@@ -10489,8 +10490,8 @@
       <c r="H129" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="J129" s="18" t="s">
-        <v>1463</v>
+      <c r="J129" s="17" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="130" spans="1:104">
@@ -10509,8 +10510,8 @@
       <c r="H130" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="J130" s="18" t="s">
-        <v>1464</v>
+      <c r="J130" s="17" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="131" spans="1:104">
@@ -10529,8 +10530,8 @@
       <c r="H131" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="J131" s="18" t="s">
-        <v>1465</v>
+      <c r="J131" s="17" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="132" spans="1:104">
@@ -10549,8 +10550,8 @@
       <c r="H132" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="J132" s="18" t="s">
-        <v>1466</v>
+      <c r="J132" s="17" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="133" spans="1:104" ht="47.25">
@@ -10569,8 +10570,8 @@
       <c r="H133" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="J133" s="18" t="s">
-        <v>1467</v>
+      <c r="J133" s="17" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="134" spans="1:104" ht="94.5">
@@ -10589,8 +10590,8 @@
       <c r="H134" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="J134" s="18" t="s">
-        <v>1468</v>
+      <c r="J134" s="17" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="135" spans="1:104" s="8" customFormat="1">
@@ -10612,10 +10613,10 @@
         <v>1025</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135" s="20" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J135" s="18"/>
+      <c r="I135" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J135" s="17"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
@@ -10727,8 +10728,8 @@
       <c r="H136" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="J136" s="18" t="s">
-        <v>1470</v>
+      <c r="J136" s="17" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="137" spans="1:104" ht="31.5">
@@ -10747,8 +10748,8 @@
       <c r="H137" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="J137" s="18" t="s">
-        <v>1471</v>
+      <c r="J137" s="17" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="138" spans="1:104" ht="47.25">
@@ -10767,8 +10768,8 @@
       <c r="H138" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="J138" s="18" t="s">
-        <v>1472</v>
+      <c r="J138" s="17" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="139" spans="1:104" ht="31.5">
@@ -10787,8 +10788,8 @@
       <c r="H139" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="J139" s="18" t="s">
-        <v>1473</v>
+      <c r="J139" s="17" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="140" spans="1:104" ht="31.5">
@@ -10807,8 +10808,8 @@
       <c r="H140" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="J140" s="18" t="s">
-        <v>1474</v>
+      <c r="J140" s="17" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="141" spans="1:104" ht="63">
@@ -10824,8 +10825,8 @@
       <c r="H141" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="J141" s="18" t="s">
-        <v>1475</v>
+      <c r="J141" s="17" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="142" spans="1:104" ht="63">
@@ -10844,8 +10845,8 @@
       <c r="H142" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="J142" s="18" t="s">
-        <v>1476</v>
+      <c r="J142" s="17" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="143" spans="1:104" ht="47.25">
@@ -10864,8 +10865,8 @@
       <c r="H143" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="J143" s="18" t="s">
-        <v>1477</v>
+      <c r="J143" s="17" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="144" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -10886,10 +10887,10 @@
         <v>1323</v>
       </c>
       <c r="H144" s="14"/>
-      <c r="I144" s="21" t="s">
-        <v>1478</v>
-      </c>
-      <c r="J144" s="18"/>
+      <c r="I144" s="20" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J144" s="17"/>
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
@@ -11003,10 +11004,10 @@
         <v>1034</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="20" t="s">
-        <v>1479</v>
-      </c>
-      <c r="J145" s="18"/>
+      <c r="I145" s="19" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J145" s="17"/>
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
@@ -11118,8 +11119,8 @@
       <c r="H146" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="J146" s="18" t="s">
-        <v>1480</v>
+      <c r="J146" s="17" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="147" spans="1:104" ht="47.25">
@@ -11141,8 +11142,8 @@
       <c r="H147" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="J147" s="18" t="s">
-        <v>1481</v>
+      <c r="J147" s="17" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="148" spans="1:104" ht="31.5">
@@ -11161,8 +11162,8 @@
       <c r="H148" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="J148" s="18" t="s">
-        <v>1482</v>
+      <c r="J148" s="17" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="149" spans="1:104" ht="31.5">
@@ -11181,8 +11182,8 @@
       <c r="H149" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="J149" s="18" t="s">
-        <v>1483</v>
+      <c r="J149" s="17" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="150" spans="1:104" ht="47.25">
@@ -11201,8 +11202,8 @@
       <c r="H150" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="J150" s="18" t="s">
-        <v>1484</v>
+      <c r="J150" s="17" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="151" spans="1:104" ht="31.5">
@@ -11221,8 +11222,8 @@
       <c r="H151" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="J151" s="18" t="s">
-        <v>1485</v>
+      <c r="J151" s="17" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="152" spans="1:104" ht="78.75">
@@ -11241,8 +11242,8 @@
       <c r="H152" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="J152" s="18" t="s">
-        <v>1486</v>
+      <c r="J152" s="17" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="153" spans="1:104" ht="78.75">
@@ -11264,8 +11265,8 @@
       <c r="H153" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="J153" s="18" t="s">
-        <v>1487</v>
+      <c r="J153" s="17" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="154" spans="1:104" ht="47.25">
@@ -11287,8 +11288,8 @@
       <c r="H154" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="J154" s="18" t="s">
-        <v>1488</v>
+      <c r="J154" s="17" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="155" spans="1:104" ht="47.25">
@@ -11307,8 +11308,8 @@
       <c r="H155" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="J155" s="18" t="s">
-        <v>1489</v>
+      <c r="J155" s="17" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="156" spans="1:104" ht="31.5">
@@ -11327,8 +11328,8 @@
       <c r="H156" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="J156" s="18" t="s">
-        <v>1490</v>
+      <c r="J156" s="17" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="157" spans="1:104" ht="63">
@@ -11347,8 +11348,8 @@
       <c r="H157" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="J157" s="18" t="s">
-        <v>1491</v>
+      <c r="J157" s="17" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="158" spans="1:104" ht="31.5">
@@ -11367,8 +11368,8 @@
       <c r="H158" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="J158" s="18" t="s">
-        <v>1492</v>
+      <c r="J158" s="17" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="159" spans="1:104" ht="47.25">
@@ -11387,8 +11388,8 @@
       <c r="H159" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="J159" s="18" t="s">
-        <v>1493</v>
+      <c r="J159" s="17" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="160" spans="1:104" ht="47.25">
@@ -11407,8 +11408,8 @@
       <c r="H160" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="J160" s="18" t="s">
-        <v>1495</v>
+      <c r="J160" s="17" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="161" spans="1:104" ht="47.25">
@@ -11427,8 +11428,8 @@
       <c r="H161" s="14" t="s">
         <v>1050</v>
       </c>
-      <c r="J161" s="18" t="s">
-        <v>1494</v>
+      <c r="J161" s="17" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="162" spans="1:104" ht="47.25">
@@ -11450,8 +11451,8 @@
       <c r="H162" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="J162" s="18" t="s">
-        <v>1496</v>
+      <c r="J162" s="17" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="163" spans="1:104" ht="110.25">
@@ -11470,8 +11471,8 @@
       <c r="H163" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="J163" s="18" t="s">
-        <v>1497</v>
+      <c r="J163" s="17" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="164" spans="1:104">
@@ -11490,8 +11491,8 @@
       <c r="H164" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="J164" s="18" t="s">
-        <v>1498</v>
+      <c r="J164" s="17" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="165" spans="1:104" ht="31.5">
@@ -11510,8 +11511,8 @@
       <c r="H165" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="J165" s="18" t="s">
-        <v>1499</v>
+      <c r="J165" s="17" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="166" spans="1:104" ht="47.25">
@@ -11530,8 +11531,8 @@
       <c r="H166" s="14" t="s">
         <v>1055</v>
       </c>
-      <c r="J166" s="18" t="s">
-        <v>1500</v>
+      <c r="J166" s="17" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="167" spans="1:104" ht="31.5">
@@ -11550,8 +11551,8 @@
       <c r="H167" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="J167" s="18" t="s">
-        <v>1501</v>
+      <c r="J167" s="17" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="168" spans="1:104" ht="47.25">
@@ -11570,8 +11571,8 @@
       <c r="H168" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="J168" s="18" t="s">
-        <v>1502</v>
+      <c r="J168" s="17" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="169" spans="1:104" s="10" customFormat="1">
@@ -11592,10 +11593,10 @@
         <v>1058</v>
       </c>
       <c r="H169" s="14"/>
-      <c r="I169" s="20" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J169" s="18"/>
+      <c r="I169" s="19" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J169" s="17"/>
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
@@ -11704,8 +11705,8 @@
       <c r="H170" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="J170" s="18" t="s">
-        <v>1504</v>
+      <c r="J170" s="17" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="171" spans="1:104" ht="31.5">
@@ -11724,8 +11725,8 @@
       <c r="H171" s="14" t="s">
         <v>1060</v>
       </c>
-      <c r="J171" s="18" t="s">
-        <v>1505</v>
+      <c r="J171" s="17" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="172" spans="1:104" ht="47.25">
@@ -11744,8 +11745,8 @@
       <c r="H172" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="J172" s="18" t="s">
-        <v>1506</v>
+      <c r="J172" s="17" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="173" spans="1:104" s="8" customFormat="1" ht="47.25">
@@ -11766,10 +11767,10 @@
         <v>1324</v>
       </c>
       <c r="H173" s="14"/>
-      <c r="I173" s="21" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J173" s="18"/>
+      <c r="I173" s="20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J173" s="17"/>
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
@@ -11883,10 +11884,10 @@
         <v>1062</v>
       </c>
       <c r="H174" s="14"/>
-      <c r="I174" s="20" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J174" s="18"/>
+      <c r="I174" s="19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J174" s="17"/>
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
@@ -12001,8 +12002,8 @@
       <c r="H175" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="J175" s="18" t="s">
-        <v>1509</v>
+      <c r="J175" s="17" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="176" spans="1:104">
@@ -12021,8 +12022,8 @@
       <c r="H176" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="J176" s="18" t="s">
-        <v>1510</v>
+      <c r="J176" s="17" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="177" spans="1:104" ht="31.5">
@@ -12041,8 +12042,8 @@
       <c r="H177" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="J177" s="18" t="s">
-        <v>1511</v>
+      <c r="J177" s="17" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="178" spans="1:104" ht="47.25">
@@ -12061,8 +12062,8 @@
       <c r="H178" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="J178" s="18" t="s">
-        <v>1512</v>
+      <c r="J178" s="17" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="179" spans="1:104" ht="47.25">
@@ -12081,8 +12082,8 @@
       <c r="H179" s="14" t="s">
         <v>1067</v>
       </c>
-      <c r="J179" s="18" t="s">
-        <v>1513</v>
+      <c r="J179" s="17" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="180" spans="1:104" ht="47.25">
@@ -12101,8 +12102,8 @@
       <c r="H180" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="J180" s="18" t="s">
-        <v>1514</v>
+      <c r="J180" s="17" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="181" spans="1:104" ht="31.5">
@@ -12121,8 +12122,8 @@
       <c r="H181" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="J181" s="18" t="s">
-        <v>1515</v>
+      <c r="J181" s="17" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="182" spans="1:104" ht="47.25">
@@ -12141,8 +12142,8 @@
       <c r="H182" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="J182" s="18" t="s">
-        <v>1516</v>
+      <c r="J182" s="17" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="183" spans="1:104" ht="47.25">
@@ -12161,8 +12162,8 @@
       <c r="H183" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="J183" s="18" t="s">
-        <v>1517</v>
+      <c r="J183" s="17" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="184" spans="1:104" s="10" customFormat="1">
@@ -12180,10 +12181,10 @@
         <v>1072</v>
       </c>
       <c r="H184" s="14"/>
-      <c r="I184" s="20" t="s">
-        <v>1518</v>
-      </c>
-      <c r="J184" s="18"/>
+      <c r="I184" s="19" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J184" s="17"/>
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
@@ -12295,8 +12296,8 @@
       <c r="H185" s="14" t="s">
         <v>1073</v>
       </c>
-      <c r="J185" s="18" t="s">
-        <v>1519</v>
+      <c r="J185" s="17" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="186" spans="1:104">
@@ -12315,8 +12316,8 @@
       <c r="H186" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="J186" s="18" t="s">
-        <v>1520</v>
+      <c r="J186" s="17" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="187" spans="1:104" ht="47.25">
@@ -12335,8 +12336,8 @@
       <c r="H187" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="J187" s="18" t="s">
-        <v>1522</v>
+      <c r="J187" s="17" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="188" spans="1:104" ht="63">
@@ -12355,8 +12356,8 @@
       <c r="H188" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="J188" s="18" t="s">
-        <v>1523</v>
+      <c r="J188" s="17" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="189" spans="1:104" ht="31.5">
@@ -12375,8 +12376,8 @@
       <c r="H189" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="J189" s="18" t="s">
-        <v>1524</v>
+      <c r="J189" s="17" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="190" spans="1:104" ht="31.5">
@@ -12395,8 +12396,8 @@
       <c r="H190" s="14" t="s">
         <v>1078</v>
       </c>
-      <c r="J190" s="18" t="s">
-        <v>1525</v>
+      <c r="J190" s="17" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="191" spans="1:104" ht="31.5">
@@ -12415,8 +12416,8 @@
       <c r="H191" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="J191" s="18" t="s">
-        <v>1526</v>
+      <c r="J191" s="17" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="192" spans="1:104" ht="31.5">
@@ -12438,8 +12439,8 @@
       <c r="H192" s="14" t="s">
         <v>1080</v>
       </c>
-      <c r="J192" s="18" t="s">
-        <v>1527</v>
+      <c r="J192" s="17" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="193" spans="1:104" ht="47.25">
@@ -12461,8 +12462,8 @@
       <c r="H193" s="14" t="s">
         <v>1081</v>
       </c>
-      <c r="J193" s="18" t="s">
-        <v>1528</v>
+      <c r="J193" s="17" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="194" spans="1:104" ht="31.5">
@@ -12481,8 +12482,8 @@
       <c r="H194" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="J194" s="18" t="s">
-        <v>1529</v>
+      <c r="J194" s="17" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="195" spans="1:104" s="10" customFormat="1">
@@ -12503,10 +12504,10 @@
         <v>1083</v>
       </c>
       <c r="H195" s="14"/>
-      <c r="I195" s="20" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J195" s="18"/>
+      <c r="I195" s="19" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J195" s="17"/>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
@@ -12618,8 +12619,8 @@
       <c r="H196" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="J196" s="18" t="s">
-        <v>1531</v>
+      <c r="J196" s="17" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="197" spans="1:104">
@@ -12638,8 +12639,8 @@
       <c r="H197" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="J197" s="18" t="s">
-        <v>1521</v>
+      <c r="J197" s="17" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="198" spans="1:104" ht="31.5">
@@ -12658,8 +12659,8 @@
       <c r="H198" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="J198" s="18" t="s">
-        <v>1532</v>
+      <c r="J198" s="17" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="199" spans="1:104" ht="63">
@@ -12678,8 +12679,8 @@
       <c r="H199" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="J199" s="18" t="s">
-        <v>1533</v>
+      <c r="J199" s="17" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="200" spans="1:104" ht="47.25">
@@ -12698,8 +12699,8 @@
       <c r="H200" s="14" t="s">
         <v>1089</v>
       </c>
-      <c r="J200" s="18" t="s">
-        <v>1534</v>
+      <c r="J200" s="17" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="201" spans="1:104" s="10" customFormat="1">
@@ -12720,10 +12721,10 @@
         <v>1084</v>
       </c>
       <c r="H201" s="14"/>
-      <c r="I201" s="20" t="s">
-        <v>1535</v>
-      </c>
-      <c r="J201" s="18"/>
+      <c r="I201" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J201" s="17"/>
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
@@ -12835,8 +12836,8 @@
       <c r="H202" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="J202" s="18" t="s">
-        <v>1536</v>
+      <c r="J202" s="17" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="203" spans="1:104" ht="94.5">
@@ -12858,8 +12859,8 @@
       <c r="H203" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="J203" s="18" t="s">
-        <v>1537</v>
+      <c r="J203" s="17" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="204" spans="1:104" ht="47.25">
@@ -12878,8 +12879,8 @@
       <c r="H204" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="J204" s="18" t="s">
-        <v>1538</v>
+      <c r="J204" s="17" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="205" spans="1:104" ht="47.25">
@@ -12898,8 +12899,8 @@
       <c r="H205" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="J205" s="18" t="s">
-        <v>1539</v>
+      <c r="J205" s="17" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="206" spans="1:104" s="10" customFormat="1">
@@ -12920,10 +12921,10 @@
         <v>1094</v>
       </c>
       <c r="H206" s="14"/>
-      <c r="I206" s="20" t="s">
-        <v>1540</v>
-      </c>
-      <c r="J206" s="18"/>
+      <c r="I206" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J206" s="17"/>
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
@@ -13035,8 +13036,8 @@
       <c r="H207" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="J207" s="18" t="s">
-        <v>1541</v>
+      <c r="J207" s="17" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="208" spans="1:104">
@@ -13052,8 +13053,8 @@
       <c r="H208" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="J208" s="18" t="s">
-        <v>1542</v>
+      <c r="J208" s="17" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="209" spans="1:104" ht="47.25">
@@ -13075,8 +13076,8 @@
       <c r="H209" s="14" t="s">
         <v>1105</v>
       </c>
-      <c r="J209" s="18" t="s">
-        <v>1543</v>
+      <c r="J209" s="17" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="210" spans="1:104" ht="47.25">
@@ -13095,8 +13096,8 @@
       <c r="H210" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="J210" s="18" t="s">
-        <v>1544</v>
+      <c r="J210" s="17" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="211" spans="1:104" ht="47.25">
@@ -13115,8 +13116,8 @@
       <c r="H211" s="14" t="s">
         <v>1107</v>
       </c>
-      <c r="J211" s="18" t="s">
-        <v>1545</v>
+      <c r="J211" s="17" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="212" spans="1:104" ht="31.5">
@@ -13135,8 +13136,8 @@
       <c r="H212" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="J212" s="18" t="s">
-        <v>1546</v>
+      <c r="J212" s="17" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="213" spans="1:104" ht="31.5">
@@ -13155,8 +13156,8 @@
       <c r="H213" s="14" t="s">
         <v>1109</v>
       </c>
-      <c r="J213" s="18" t="s">
-        <v>1547</v>
+      <c r="J213" s="17" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="214" spans="1:104" s="10" customFormat="1">
@@ -13177,10 +13178,10 @@
         <v>1095</v>
       </c>
       <c r="H214" s="14"/>
-      <c r="I214" s="20" t="s">
-        <v>1548</v>
-      </c>
-      <c r="J214" s="18"/>
+      <c r="I214" s="19" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J214" s="17"/>
       <c r="K214"/>
       <c r="L214"/>
       <c r="M214"/>
@@ -13295,8 +13296,8 @@
       <c r="H215" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="J215" s="18" t="s">
-        <v>1549</v>
+      <c r="J215" s="17" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="216" spans="1:104" ht="31.5">
@@ -13315,8 +13316,8 @@
       <c r="H216" s="14" t="s">
         <v>1098</v>
       </c>
-      <c r="J216" s="18" t="s">
-        <v>1550</v>
+      <c r="J216" s="17" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="217" spans="1:104" ht="31.5">
@@ -13335,8 +13336,8 @@
       <c r="H217" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="J217" s="18" t="s">
-        <v>1551</v>
+      <c r="J217" s="17" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="218" spans="1:104" ht="31.5">
@@ -13355,8 +13356,8 @@
       <c r="H218" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="J218" s="18" t="s">
-        <v>1552</v>
+      <c r="J218" s="17" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="219" spans="1:104" ht="47.25">
@@ -13378,8 +13379,8 @@
       <c r="H219" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="J219" s="18" t="s">
-        <v>1553</v>
+      <c r="J219" s="17" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="220" spans="1:104" ht="63">
@@ -13401,8 +13402,8 @@
       <c r="H220" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="J220" s="18" t="s">
-        <v>1554</v>
+      <c r="J220" s="17" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="221" spans="1:104" s="10" customFormat="1">
@@ -13423,10 +13424,10 @@
         <v>1096</v>
       </c>
       <c r="H221" s="14"/>
-      <c r="I221" s="20" t="s">
-        <v>1555</v>
-      </c>
-      <c r="J221" s="18"/>
+      <c r="I221" s="19" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J221" s="17"/>
       <c r="K221"/>
       <c r="L221"/>
       <c r="M221"/>
@@ -13538,8 +13539,8 @@
       <c r="H222" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="J222" s="18" t="s">
-        <v>1556</v>
+      <c r="J222" s="17" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="223" spans="1:104">
@@ -13558,8 +13559,8 @@
       <c r="H223" s="14" t="s">
         <v>1111</v>
       </c>
-      <c r="J223" s="18" t="s">
-        <v>1557</v>
+      <c r="J223" s="17" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="224" spans="1:104" ht="31.5">
@@ -13578,8 +13579,8 @@
       <c r="H224" s="14" t="s">
         <v>1112</v>
       </c>
-      <c r="J224" s="18" t="s">
-        <v>1558</v>
+      <c r="J224" s="17" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="225" spans="1:104" ht="47.25">
@@ -13598,8 +13599,8 @@
       <c r="H225" s="14" t="s">
         <v>1113</v>
       </c>
-      <c r="J225" s="18" t="s">
-        <v>1559</v>
+      <c r="J225" s="17" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="226" spans="1:104" ht="47.25">
@@ -13618,8 +13619,8 @@
       <c r="H226" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="J226" s="18" t="s">
-        <v>1560</v>
+      <c r="J226" s="17" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="227" spans="1:104" ht="47.25">
@@ -13638,8 +13639,8 @@
       <c r="H227" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="J227" s="18" t="s">
-        <v>1561</v>
+      <c r="J227" s="17" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="228" spans="1:104" ht="31.5">
@@ -13658,8 +13659,8 @@
       <c r="H228" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="J228" s="18" t="s">
-        <v>1562</v>
+      <c r="J228" s="17" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="229" spans="1:104" ht="31.5">
@@ -13678,8 +13679,8 @@
       <c r="H229" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="J229" s="18" t="s">
-        <v>1563</v>
+      <c r="J229" s="17" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="230" spans="1:104" ht="47.25">
@@ -13698,8 +13699,8 @@
       <c r="H230" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="J230" s="18" t="s">
-        <v>1564</v>
+      <c r="J230" s="17" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="231" spans="1:104" ht="47.25">
@@ -13718,8 +13719,8 @@
       <c r="H231" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="J231" s="18" t="s">
-        <v>1565</v>
+      <c r="J231" s="17" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="232" spans="1:104" ht="78.75">
@@ -13738,8 +13739,8 @@
       <c r="H232" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="J232" s="18" t="s">
-        <v>1566</v>
+      <c r="J232" s="17" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="233" spans="1:104" ht="63">
@@ -13758,8 +13759,8 @@
       <c r="H233" s="14" t="s">
         <v>1121</v>
       </c>
-      <c r="J233" s="18" t="s">
-        <v>1567</v>
+      <c r="J233" s="17" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="234" spans="1:104" ht="78.75">
@@ -13778,8 +13779,8 @@
       <c r="H234" s="14" t="s">
         <v>1122</v>
       </c>
-      <c r="J234" s="18" t="s">
-        <v>1568</v>
+      <c r="J234" s="17" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="235" spans="1:104" ht="47.25">
@@ -13798,8 +13799,8 @@
       <c r="H235" s="14" t="s">
         <v>1123</v>
       </c>
-      <c r="J235" s="18" t="s">
-        <v>1569</v>
+      <c r="J235" s="17" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="236" spans="1:104" ht="47.25">
@@ -13818,8 +13819,8 @@
       <c r="H236" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="J236" s="18" t="s">
-        <v>1570</v>
+      <c r="J236" s="17" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="237" spans="1:104" s="10" customFormat="1">
@@ -13840,10 +13841,10 @@
         <v>1125</v>
       </c>
       <c r="H237" s="14"/>
-      <c r="I237" s="20" t="s">
-        <v>1571</v>
-      </c>
-      <c r="J237" s="18"/>
+      <c r="I237" s="19" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J237" s="17"/>
       <c r="K237"/>
       <c r="L237"/>
       <c r="M237"/>
@@ -13958,8 +13959,8 @@
       <c r="H238" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="J238" s="18" t="s">
-        <v>1572</v>
+      <c r="J238" s="17" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="239" spans="1:104">
@@ -13975,8 +13976,8 @@
       <c r="H239" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="J239" s="18" t="s">
-        <v>1573</v>
+      <c r="J239" s="17" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="240" spans="1:104" ht="47.25">
@@ -13995,8 +13996,8 @@
       <c r="H240" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="J240" s="18" t="s">
-        <v>1574</v>
+      <c r="J240" s="17" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="241" spans="1:104" ht="31.5">
@@ -14015,8 +14016,8 @@
       <c r="H241" s="14" t="s">
         <v>1129</v>
       </c>
-      <c r="J241" s="18" t="s">
-        <v>1575</v>
+      <c r="J241" s="17" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="242" spans="1:104" ht="47.25">
@@ -14035,8 +14036,8 @@
       <c r="H242" s="14" t="s">
         <v>1130</v>
       </c>
-      <c r="J242" s="18" t="s">
-        <v>1576</v>
+      <c r="J242" s="17" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="243" spans="1:104" ht="47.25">
@@ -14055,8 +14056,8 @@
       <c r="H243" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="J243" s="18" t="s">
-        <v>1577</v>
+      <c r="J243" s="17" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="244" spans="1:104" ht="47.25">
@@ -14075,8 +14076,8 @@
       <c r="H244" s="14" t="s">
         <v>1132</v>
       </c>
-      <c r="J244" s="18" t="s">
-        <v>1578</v>
+      <c r="J244" s="17" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="245" spans="1:104" ht="47.25">
@@ -14095,8 +14096,8 @@
       <c r="H245" s="14" t="s">
         <v>1133</v>
       </c>
-      <c r="J245" s="18" t="s">
-        <v>1579</v>
+      <c r="J245" s="17" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="246" spans="1:104" ht="31.5">
@@ -14115,8 +14116,8 @@
       <c r="H246" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="J246" s="18" t="s">
-        <v>1580</v>
+      <c r="J246" s="17" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="247" spans="1:104" ht="47.25">
@@ -14135,8 +14136,8 @@
       <c r="H247" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="J247" s="18" t="s">
-        <v>1581</v>
+      <c r="J247" s="17" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="248" spans="1:104" ht="47.25">
@@ -14155,8 +14156,8 @@
       <c r="H248" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="J248" s="18" t="s">
-        <v>1582</v>
+      <c r="J248" s="17" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="249" spans="1:104" ht="31.5">
@@ -14173,8 +14174,8 @@
       <c r="G249" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="I249" s="20" t="s">
-        <v>1583</v>
+      <c r="I249" s="19" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="250" spans="1:104" ht="31.5">
@@ -14193,8 +14194,8 @@
       <c r="H250" s="14" t="s">
         <v>1138</v>
       </c>
-      <c r="J250" s="18" t="s">
-        <v>1584</v>
+      <c r="J250" s="17" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="251" spans="1:104" ht="94.5">
@@ -14216,8 +14217,8 @@
       <c r="H251" s="14" t="s">
         <v>1139</v>
       </c>
-      <c r="J251" s="18" t="s">
-        <v>1585</v>
+      <c r="J251" s="17" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="252" spans="1:104" s="10" customFormat="1">
@@ -14238,10 +14239,10 @@
         <v>1140</v>
       </c>
       <c r="H252" s="14"/>
-      <c r="I252" s="20" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J252" s="18"/>
+      <c r="I252" s="19" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J252" s="17"/>
       <c r="K252"/>
       <c r="L252"/>
       <c r="M252"/>
@@ -14353,8 +14354,8 @@
       <c r="H253" s="14" t="s">
         <v>1141</v>
       </c>
-      <c r="J253" s="18" t="s">
-        <v>1587</v>
+      <c r="J253" s="17" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="254" spans="1:104">
@@ -14373,8 +14374,8 @@
       <c r="H254" s="14" t="s">
         <v>1142</v>
       </c>
-      <c r="J254" s="18" t="s">
-        <v>1588</v>
+      <c r="J254" s="17" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="255" spans="1:104" ht="47.25">
@@ -14393,8 +14394,8 @@
       <c r="H255" s="14" t="s">
         <v>1143</v>
       </c>
-      <c r="J255" s="18" t="s">
-        <v>1589</v>
+      <c r="J255" s="17" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="256" spans="1:104" ht="47.25">
@@ -14413,8 +14414,8 @@
       <c r="H256" s="14" t="s">
         <v>1144</v>
       </c>
-      <c r="J256" s="18" t="s">
-        <v>1590</v>
+      <c r="J256" s="17" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="257" spans="1:104" ht="47.25">
@@ -14433,8 +14434,8 @@
       <c r="H257" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="J257" s="18" t="s">
-        <v>1591</v>
+      <c r="J257" s="17" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="258" spans="1:104" ht="47.25">
@@ -14453,8 +14454,8 @@
       <c r="H258" s="14" t="s">
         <v>1146</v>
       </c>
-      <c r="J258" s="18" t="s">
-        <v>1592</v>
+      <c r="J258" s="17" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="259" spans="1:104" ht="47.25">
@@ -14473,8 +14474,8 @@
       <c r="H259" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="J259" s="18" t="s">
-        <v>1593</v>
+      <c r="J259" s="17" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="260" spans="1:104" ht="63">
@@ -14493,8 +14494,8 @@
       <c r="H260" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="J260" s="18" t="s">
-        <v>1594</v>
+      <c r="J260" s="17" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="261" spans="1:104" ht="47.25">
@@ -14513,8 +14514,8 @@
       <c r="H261" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="J261" s="18" t="s">
-        <v>1595</v>
+      <c r="J261" s="17" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="262" spans="1:104" s="8" customFormat="1" ht="63">
@@ -14535,10 +14536,10 @@
         <v>1325</v>
       </c>
       <c r="H262" s="14"/>
-      <c r="I262" s="21" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J262" s="18"/>
+      <c r="I262" s="20" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J262" s="17"/>
       <c r="K262"/>
       <c r="L262"/>
       <c r="M262"/>
@@ -14651,9 +14652,9 @@
       <c r="H263" s="14" t="s">
         <v>1150</v>
       </c>
-      <c r="I263" s="20"/>
-      <c r="J263" s="18" t="s">
-        <v>1597</v>
+      <c r="I263" s="19"/>
+      <c r="J263" s="17" t="s">
+        <v>1595</v>
       </c>
       <c r="K263"/>
       <c r="L263"/>
@@ -14769,9 +14770,9 @@
       <c r="H264" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="I264" s="20"/>
-      <c r="J264" s="18" t="s">
-        <v>1598</v>
+      <c r="I264" s="19"/>
+      <c r="J264" s="17" t="s">
+        <v>1596</v>
       </c>
       <c r="K264"/>
       <c r="L264"/>
@@ -14884,8 +14885,8 @@
       <c r="H265" s="14" t="s">
         <v>1152</v>
       </c>
-      <c r="J265" s="18" t="s">
-        <v>1599</v>
+      <c r="J265" s="17" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="266" spans="1:104" ht="47.25">
@@ -14904,8 +14905,8 @@
       <c r="H266" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="J266" s="18" t="s">
-        <v>1600</v>
+      <c r="J266" s="17" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="267" spans="1:104" ht="31.5">
@@ -14924,8 +14925,8 @@
       <c r="H267" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="J267" s="18" t="s">
-        <v>1601</v>
+      <c r="J267" s="17" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="268" spans="1:104" ht="47.25">
@@ -14944,8 +14945,8 @@
       <c r="H268" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="J268" s="18" t="s">
-        <v>1602</v>
+      <c r="J268" s="17" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="269" spans="1:104" ht="31.5">
@@ -14964,8 +14965,8 @@
       <c r="H269" s="14" t="s">
         <v>1156</v>
       </c>
-      <c r="J269" s="18" t="s">
-        <v>1603</v>
+      <c r="J269" s="17" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="270" spans="1:104" ht="31.5">
@@ -14984,8 +14985,8 @@
       <c r="H270" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="J270" s="18" t="s">
-        <v>1604</v>
+      <c r="J270" s="17" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="271" spans="1:104" s="10" customFormat="1" ht="47.25">
@@ -15005,9 +15006,9 @@
       <c r="H271" s="14" t="s">
         <v>1158</v>
       </c>
-      <c r="I271" s="20"/>
-      <c r="J271" s="18" t="s">
-        <v>1605</v>
+      <c r="I271" s="19"/>
+      <c r="J271" s="17" t="s">
+        <v>1603</v>
       </c>
       <c r="K271"/>
       <c r="L271"/>
@@ -15122,10 +15123,10 @@
         <v>1326</v>
       </c>
       <c r="H272" s="14"/>
-      <c r="I272" s="21" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J272" s="18"/>
+      <c r="I272" s="20" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J272" s="17"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
@@ -15237,10 +15238,10 @@
         <v>1159</v>
       </c>
       <c r="H273" s="14"/>
-      <c r="I273" s="20" t="s">
-        <v>1607</v>
-      </c>
-      <c r="J273" s="18"/>
+      <c r="I273" s="19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J273" s="17"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
@@ -15352,8 +15353,8 @@
       <c r="H274" s="14" t="s">
         <v>1160</v>
       </c>
-      <c r="J274" s="18" t="s">
-        <v>1608</v>
+      <c r="J274" s="17" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="275" spans="1:104" ht="63">
@@ -15375,8 +15376,8 @@
       <c r="H275" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="J275" s="18" t="s">
-        <v>1609</v>
+      <c r="J275" s="17" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="276" spans="1:104" ht="31.5">
@@ -15395,8 +15396,8 @@
       <c r="H276" s="14" t="s">
         <v>1162</v>
       </c>
-      <c r="J276" s="18" t="s">
-        <v>1610</v>
+      <c r="J276" s="17" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="277" spans="1:104" ht="47.25">
@@ -15415,8 +15416,8 @@
       <c r="H277" s="14" t="s">
         <v>1163</v>
       </c>
-      <c r="J277" s="18" t="s">
-        <v>1611</v>
+      <c r="J277" s="17" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="278" spans="1:104" ht="63">
@@ -15435,8 +15436,8 @@
       <c r="H278" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="J278" s="18" t="s">
-        <v>1612</v>
+      <c r="J278" s="17" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="279" spans="1:104" ht="63">
@@ -15455,8 +15456,8 @@
       <c r="H279" s="14" t="s">
         <v>1165</v>
       </c>
-      <c r="J279" s="18" t="s">
-        <v>1613</v>
+      <c r="J279" s="17" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="280" spans="1:104" s="10" customFormat="1">
@@ -15477,10 +15478,10 @@
         <v>1166</v>
       </c>
       <c r="H280" s="14"/>
-      <c r="I280" s="20" t="s">
-        <v>1614</v>
-      </c>
-      <c r="J280" s="18"/>
+      <c r="I280" s="19" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J280" s="17"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
@@ -15592,8 +15593,8 @@
       <c r="H281" s="14" t="s">
         <v>1167</v>
       </c>
-      <c r="J281" s="18" t="s">
-        <v>1615</v>
+      <c r="J281" s="17" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="282" spans="1:104" ht="78.75">
@@ -15612,8 +15613,8 @@
       <c r="H282" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="J282" s="18" t="s">
-        <v>1616</v>
+      <c r="J282" s="17" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="283" spans="1:104" ht="47.25">
@@ -15635,8 +15636,8 @@
       <c r="H283" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="J283" s="18" t="s">
-        <v>1617</v>
+      <c r="J283" s="17" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="284" spans="1:104" ht="47.25">
@@ -15655,8 +15656,8 @@
       <c r="H284" s="14" t="s">
         <v>1170</v>
       </c>
-      <c r="J284" s="18" t="s">
-        <v>1618</v>
+      <c r="J284" s="17" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="285" spans="1:104" ht="31.5">
@@ -15675,8 +15676,8 @@
       <c r="H285" s="14" t="s">
         <v>1171</v>
       </c>
-      <c r="J285" s="18" t="s">
-        <v>1619</v>
+      <c r="J285" s="17" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="286" spans="1:104" ht="31.5">
@@ -15695,8 +15696,8 @@
       <c r="H286" s="14" t="s">
         <v>1172</v>
       </c>
-      <c r="J286" s="18" t="s">
-        <v>1620</v>
+      <c r="J286" s="17" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="287" spans="1:104" ht="47.25">
@@ -15715,8 +15716,8 @@
       <c r="H287" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="J287" s="18" t="s">
-        <v>1621</v>
+      <c r="J287" s="17" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="288" spans="1:104" ht="47.25">
@@ -15735,8 +15736,8 @@
       <c r="H288" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="J288" s="18" t="s">
-        <v>1622</v>
+      <c r="J288" s="17" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="289" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -15757,10 +15758,10 @@
         <v>1327</v>
       </c>
       <c r="H289" s="14"/>
-      <c r="I289" s="21" t="s">
-        <v>1623</v>
-      </c>
-      <c r="J289" s="18"/>
+      <c r="I289" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J289" s="17"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
@@ -15875,9 +15876,9 @@
       <c r="H290" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="I290" s="20"/>
-      <c r="J290" s="18" t="s">
-        <v>1624</v>
+      <c r="I290" s="19"/>
+      <c r="J290" s="17" t="s">
+        <v>1622</v>
       </c>
       <c r="K290"/>
       <c r="L290"/>
@@ -15991,9 +15992,9 @@
       <c r="H291" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="I291" s="20"/>
-      <c r="J291" s="18" t="s">
-        <v>1625</v>
+      <c r="I291" s="19"/>
+      <c r="J291" s="17" t="s">
+        <v>1623</v>
       </c>
       <c r="K291"/>
       <c r="L291"/>
@@ -16106,8 +16107,8 @@
       <c r="H292" s="14" t="s">
         <v>1177</v>
       </c>
-      <c r="J292" s="18" t="s">
-        <v>1626</v>
+      <c r="J292" s="17" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="293" spans="1:104" ht="78.75">
@@ -16126,8 +16127,8 @@
       <c r="H293" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="J293" s="18" t="s">
-        <v>1627</v>
+      <c r="J293" s="17" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="294" spans="1:104" ht="31.5">
@@ -16146,8 +16147,8 @@
       <c r="H294" s="14" t="s">
         <v>1179</v>
       </c>
-      <c r="J294" s="18" t="s">
-        <v>1628</v>
+      <c r="J294" s="17" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="295" spans="1:104" ht="31.5">
@@ -16166,8 +16167,8 @@
       <c r="H295" s="14" t="s">
         <v>1180</v>
       </c>
-      <c r="J295" s="18" t="s">
-        <v>1629</v>
+      <c r="J295" s="17" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="296" spans="1:104" ht="31.5">
@@ -16186,8 +16187,8 @@
       <c r="H296" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="J296" s="18" t="s">
-        <v>1630</v>
+      <c r="J296" s="17" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="297" spans="1:104" ht="31.5">
@@ -16206,8 +16207,8 @@
       <c r="H297" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="J297" s="18" t="s">
-        <v>1631</v>
+      <c r="J297" s="17" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="298" spans="1:104" ht="31.5">
@@ -16226,8 +16227,8 @@
       <c r="H298" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="J298" s="18" t="s">
-        <v>1632</v>
+      <c r="J298" s="17" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="299" spans="1:104" ht="31.5">
@@ -16246,8 +16247,8 @@
       <c r="H299" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="J299" s="18" t="s">
-        <v>1633</v>
+      <c r="J299" s="17" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="300" spans="1:104" ht="31.5">
@@ -16266,8 +16267,8 @@
       <c r="H300" s="14" t="s">
         <v>1185</v>
       </c>
-      <c r="J300" s="18" t="s">
-        <v>1634</v>
+      <c r="J300" s="17" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="301" spans="1:104" ht="31.5">
@@ -16286,8 +16287,8 @@
       <c r="H301" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="J301" s="18" t="s">
-        <v>1635</v>
+      <c r="J301" s="17" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="302" spans="1:104" ht="31.5">
@@ -16306,8 +16307,8 @@
       <c r="H302" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="J302" s="18" t="s">
-        <v>1636</v>
+      <c r="J302" s="17" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="303" spans="1:104" ht="31.5">
@@ -16326,8 +16327,8 @@
       <c r="H303" s="14" t="s">
         <v>1188</v>
       </c>
-      <c r="J303" s="18" t="s">
-        <v>1637</v>
+      <c r="J303" s="17" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="304" spans="1:104" ht="31.5">
@@ -16346,8 +16347,8 @@
       <c r="H304" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="J304" s="18" t="s">
-        <v>1638</v>
+      <c r="J304" s="17" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="305" spans="1:104" ht="31.5">
@@ -16366,8 +16367,8 @@
       <c r="H305" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="J305" s="18" t="s">
-        <v>1639</v>
+      <c r="J305" s="17" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="306" spans="1:104" ht="47.25">
@@ -16386,8 +16387,8 @@
       <c r="H306" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="J306" s="18" t="s">
-        <v>1640</v>
+      <c r="J306" s="17" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="307" spans="1:104" ht="47.25">
@@ -16406,8 +16407,8 @@
       <c r="H307" s="14" t="s">
         <v>1192</v>
       </c>
-      <c r="J307" s="18" t="s">
-        <v>1641</v>
+      <c r="J307" s="17" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="308" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -16428,10 +16429,10 @@
         <v>1328</v>
       </c>
       <c r="H308"/>
-      <c r="I308" s="21" t="s">
-        <v>1642</v>
-      </c>
-      <c r="J308" s="18"/>
+      <c r="I308" s="20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J308" s="17"/>
       <c r="K308"/>
       <c r="L308"/>
       <c r="M308"/>
@@ -16545,10 +16546,10 @@
         <v>1193</v>
       </c>
       <c r="H309"/>
-      <c r="I309" s="20" t="s">
-        <v>1643</v>
-      </c>
-      <c r="J309" s="18"/>
+      <c r="I309" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J309" s="17"/>
       <c r="K309"/>
       <c r="L309"/>
       <c r="M309"/>
@@ -16660,8 +16661,8 @@
       <c r="H310" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="J310" s="18" t="s">
-        <v>1644</v>
+      <c r="J310" s="17" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="311" spans="1:104">
@@ -16680,8 +16681,8 @@
       <c r="H311" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="J311" s="18" t="s">
-        <v>1645</v>
+      <c r="J311" s="17" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="312" spans="1:104" ht="63">
@@ -16703,8 +16704,8 @@
       <c r="H312" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="J312" s="18" t="s">
-        <v>1646</v>
+      <c r="J312" s="17" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="313" spans="1:104" ht="47.25">
@@ -16723,8 +16724,8 @@
       <c r="H313" s="14" t="s">
         <v>1197</v>
       </c>
-      <c r="J313" s="18" t="s">
-        <v>1647</v>
+      <c r="J313" s="17" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="314" spans="1:104" ht="63">
@@ -16743,8 +16744,8 @@
       <c r="H314" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="J314" s="18" t="s">
-        <v>1648</v>
+      <c r="J314" s="17" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="315" spans="1:104" ht="47.25">
@@ -16763,8 +16764,8 @@
       <c r="H315" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="J315" s="18" t="s">
-        <v>1649</v>
+      <c r="J315" s="17" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="316" spans="1:104" ht="63">
@@ -16786,8 +16787,8 @@
       <c r="H316" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="J316" s="18" t="s">
-        <v>1650</v>
+      <c r="J316" s="17" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="317" spans="1:104" s="10" customFormat="1">
@@ -16808,10 +16809,10 @@
         <v>1201</v>
       </c>
       <c r="H317" s="14"/>
-      <c r="I317" s="20" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J317" s="18"/>
+      <c r="I317" s="19" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J317" s="17"/>
       <c r="K317"/>
       <c r="L317"/>
       <c r="M317"/>
@@ -16926,8 +16927,8 @@
       <c r="H318" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="J318" s="18" t="s">
-        <v>1652</v>
+      <c r="J318" s="17" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="319" spans="1:104">
@@ -16946,8 +16947,8 @@
       <c r="H319" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="J319" s="18" t="s">
-        <v>1653</v>
+      <c r="J319" s="17" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="320" spans="1:104" ht="47.25">
@@ -16966,8 +16967,8 @@
       <c r="H320" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="J320" s="18" t="s">
-        <v>1654</v>
+      <c r="J320" s="17" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="321" spans="1:104" ht="94.5">
@@ -16989,8 +16990,8 @@
       <c r="H321" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="J321" s="18" t="s">
-        <v>1655</v>
+      <c r="J321" s="17" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="322" spans="1:104" ht="31.5">
@@ -17009,8 +17010,8 @@
       <c r="H322" s="14" t="s">
         <v>1206</v>
       </c>
-      <c r="J322" s="18" t="s">
-        <v>1656</v>
+      <c r="J322" s="17" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="323" spans="1:104" s="10" customFormat="1">
@@ -17031,10 +17032,10 @@
         <v>1207</v>
       </c>
       <c r="H323" s="14"/>
-      <c r="I323" s="20" t="s">
-        <v>1657</v>
-      </c>
-      <c r="J323" s="18"/>
+      <c r="I323" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J323" s="17"/>
       <c r="K323"/>
       <c r="L323"/>
       <c r="M323"/>
@@ -17146,8 +17147,8 @@
       <c r="H324" s="14" t="s">
         <v>1209</v>
       </c>
-      <c r="J324" s="18" t="s">
-        <v>1658</v>
+      <c r="J324" s="17" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="325" spans="1:104" ht="63">
@@ -17169,8 +17170,8 @@
       <c r="H325" s="14" t="s">
         <v>1210</v>
       </c>
-      <c r="J325" s="18" t="s">
-        <v>1659</v>
+      <c r="J325" s="17" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="326" spans="1:104" s="10" customFormat="1">
@@ -17191,10 +17192,10 @@
         <v>1208</v>
       </c>
       <c r="H326" s="14"/>
-      <c r="I326" s="20" t="s">
-        <v>1660</v>
-      </c>
-      <c r="J326" s="18"/>
+      <c r="I326" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J326" s="17"/>
       <c r="K326"/>
       <c r="L326"/>
       <c r="M326"/>
@@ -17306,8 +17307,8 @@
       <c r="H327" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="J327" s="18" t="s">
-        <v>1661</v>
+      <c r="J327" s="17" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="328" spans="1:104" ht="47.25">
@@ -17326,8 +17327,8 @@
       <c r="H328" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="J328" s="18" t="s">
-        <v>1662</v>
+      <c r="J328" s="17" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="329" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -17348,10 +17349,10 @@
         <v>1332</v>
       </c>
       <c r="H329" s="14"/>
-      <c r="I329" s="21" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J329" s="18"/>
+      <c r="I329" s="20" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J329" s="17"/>
       <c r="K329"/>
       <c r="L329"/>
       <c r="M329"/>
@@ -17465,10 +17466,10 @@
         <v>1213</v>
       </c>
       <c r="H330" s="14"/>
-      <c r="I330" s="20" t="s">
-        <v>1664</v>
-      </c>
-      <c r="J330" s="18"/>
+      <c r="I330" s="19" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J330" s="17"/>
       <c r="K330"/>
       <c r="L330"/>
       <c r="M330"/>
@@ -17580,8 +17581,8 @@
       <c r="H331" s="14" t="s">
         <v>1214</v>
       </c>
-      <c r="J331" s="18" t="s">
-        <v>1665</v>
+      <c r="J331" s="17" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="332" spans="1:104">
@@ -17600,8 +17601,8 @@
       <c r="H332" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="J332" s="18" t="s">
-        <v>1666</v>
+      <c r="J332" s="17" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="333" spans="1:104" ht="47.25">
@@ -17620,8 +17621,8 @@
       <c r="H333" s="14" t="s">
         <v>1216</v>
       </c>
-      <c r="J333" s="18" t="s">
-        <v>1667</v>
+      <c r="J333" s="17" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="334" spans="1:104" ht="31.5">
@@ -17640,8 +17641,8 @@
       <c r="H334" s="14" t="s">
         <v>1217</v>
       </c>
-      <c r="J334" s="18" t="s">
-        <v>1668</v>
+      <c r="J334" s="17" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="335" spans="1:104" ht="31.5">
@@ -17660,8 +17661,8 @@
       <c r="H335" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="J335" s="18" t="s">
-        <v>1669</v>
+      <c r="J335" s="17" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="336" spans="1:104" ht="47.25">
@@ -17680,8 +17681,8 @@
       <c r="H336" s="14" t="s">
         <v>1219</v>
       </c>
-      <c r="J336" s="18" t="s">
-        <v>1670</v>
+      <c r="J336" s="17" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="337" spans="1:104" s="10" customFormat="1">
@@ -17702,10 +17703,10 @@
         <v>1220</v>
       </c>
       <c r="H337" s="14"/>
-      <c r="I337" s="20" t="s">
-        <v>1671</v>
-      </c>
-      <c r="J337" s="18"/>
+      <c r="I337" s="19" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J337" s="17"/>
       <c r="K337"/>
       <c r="L337"/>
       <c r="M337"/>
@@ -17820,8 +17821,8 @@
       <c r="H338" s="14" t="s">
         <v>1221</v>
       </c>
-      <c r="J338" s="18" t="s">
-        <v>1672</v>
+      <c r="J338" s="17" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="339" spans="1:104">
@@ -17837,8 +17838,8 @@
       <c r="H339" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="J339" s="18" t="s">
-        <v>1542</v>
+      <c r="J339" s="17" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="340" spans="1:104" ht="47.25">
@@ -17857,8 +17858,8 @@
       <c r="H340" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="J340" s="18" t="s">
-        <v>1673</v>
+      <c r="J340" s="17" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="341" spans="1:104" ht="47.25">
@@ -17877,8 +17878,8 @@
       <c r="H341" s="14" t="s">
         <v>1223</v>
       </c>
-      <c r="J341" s="18" t="s">
-        <v>1674</v>
+      <c r="J341" s="17" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="342" spans="1:104" ht="31.5">
@@ -17897,8 +17898,8 @@
       <c r="H342" s="14" t="s">
         <v>1224</v>
       </c>
-      <c r="J342" s="18" t="s">
-        <v>1675</v>
+      <c r="J342" s="17" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="343" spans="1:104" ht="63">
@@ -17917,8 +17918,8 @@
       <c r="H343" s="14" t="s">
         <v>1225</v>
       </c>
-      <c r="J343" s="18" t="s">
-        <v>1676</v>
+      <c r="J343" s="17" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="344" spans="1:104" ht="31.5">
@@ -17937,8 +17938,8 @@
       <c r="H344" s="14" t="s">
         <v>1226</v>
       </c>
-      <c r="J344" s="18" t="s">
-        <v>1677</v>
+      <c r="J344" s="17" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="345" spans="1:104" ht="31.5">
@@ -17957,8 +17958,8 @@
       <c r="H345" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="J345" s="18" t="s">
-        <v>1678</v>
+      <c r="J345" s="17" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="346" spans="1:104" ht="63">
@@ -17977,8 +17978,8 @@
       <c r="H346" s="14" t="s">
         <v>1228</v>
       </c>
-      <c r="J346" s="18" t="s">
-        <v>1679</v>
+      <c r="J346" s="17" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="347" spans="1:104" s="10" customFormat="1">
@@ -17999,10 +18000,10 @@
         <v>1229</v>
       </c>
       <c r="H347" s="14"/>
-      <c r="I347" s="20" t="s">
-        <v>1680</v>
-      </c>
-      <c r="J347" s="18"/>
+      <c r="I347" s="19" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J347" s="17"/>
       <c r="K347"/>
       <c r="L347"/>
       <c r="M347"/>
@@ -18117,8 +18118,8 @@
       <c r="H348" s="14" t="s">
         <v>1230</v>
       </c>
-      <c r="J348" s="18" t="s">
-        <v>1681</v>
+      <c r="J348" s="17" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="349" spans="1:104">
@@ -18137,8 +18138,8 @@
       <c r="H349" s="14" t="s">
         <v>1231</v>
       </c>
-      <c r="J349" s="18" t="s">
-        <v>1682</v>
+      <c r="J349" s="17" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="350" spans="1:104" ht="47.25">
@@ -18157,8 +18158,8 @@
       <c r="H350" s="14" t="s">
         <v>1232</v>
       </c>
-      <c r="J350" s="18" t="s">
-        <v>1683</v>
+      <c r="J350" s="17" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="351" spans="1:104" ht="47.25">
@@ -18177,8 +18178,8 @@
       <c r="H351" s="14" t="s">
         <v>1233</v>
       </c>
-      <c r="J351" s="18" t="s">
-        <v>1684</v>
+      <c r="J351" s="17" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="352" spans="1:104" ht="31.5">
@@ -18197,8 +18198,8 @@
       <c r="H352" s="14" t="s">
         <v>1234</v>
       </c>
-      <c r="J352" s="18" t="s">
-        <v>1685</v>
+      <c r="J352" s="17" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="353" spans="1:104" ht="47.25">
@@ -18217,8 +18218,8 @@
       <c r="H353" s="14" t="s">
         <v>1235</v>
       </c>
-      <c r="J353" s="18" t="s">
-        <v>1686</v>
+      <c r="J353" s="17" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="354" spans="1:104" ht="63">
@@ -18237,8 +18238,8 @@
       <c r="H354" s="14" t="s">
         <v>1236</v>
       </c>
-      <c r="J354" s="18" t="s">
-        <v>1687</v>
+      <c r="J354" s="17" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="355" spans="1:104" s="10" customFormat="1">
@@ -18259,10 +18260,10 @@
         <v>1237</v>
       </c>
       <c r="H355" s="14"/>
-      <c r="I355" s="20" t="s">
-        <v>1688</v>
-      </c>
-      <c r="J355" s="18"/>
+      <c r="I355" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J355" s="17"/>
       <c r="K355"/>
       <c r="L355"/>
       <c r="M355"/>
@@ -18377,8 +18378,8 @@
       <c r="H356" s="14" t="s">
         <v>1238</v>
       </c>
-      <c r="J356" s="18" t="s">
-        <v>1689</v>
+      <c r="J356" s="17" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="357" spans="1:104">
@@ -18394,8 +18395,8 @@
       <c r="H357" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="J357" s="18" t="s">
-        <v>1573</v>
+      <c r="J357" s="17" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="358" spans="1:104" ht="47.25">
@@ -18414,8 +18415,8 @@
       <c r="H358" s="14" t="s">
         <v>1239</v>
       </c>
-      <c r="J358" s="18" t="s">
-        <v>1690</v>
+      <c r="J358" s="17" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="359" spans="1:104" ht="47.25">
@@ -18434,8 +18435,8 @@
       <c r="H359" s="14" t="s">
         <v>1240</v>
       </c>
-      <c r="J359" s="18" t="s">
-        <v>1691</v>
+      <c r="J359" s="17" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="360" spans="1:104" ht="31.5">
@@ -18454,8 +18455,8 @@
       <c r="H360" s="14" t="s">
         <v>1241</v>
       </c>
-      <c r="J360" s="18" t="s">
-        <v>1692</v>
+      <c r="J360" s="17" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="361" spans="1:104" s="10" customFormat="1">
@@ -18476,10 +18477,10 @@
         <v>1242</v>
       </c>
       <c r="H361"/>
-      <c r="I361" s="20" t="s">
-        <v>1693</v>
-      </c>
-      <c r="J361" s="18"/>
+      <c r="I361" s="19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J361" s="17"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
@@ -18591,8 +18592,8 @@
       <c r="H362" s="14" t="s">
         <v>1243</v>
       </c>
-      <c r="J362" s="18" t="s">
-        <v>1694</v>
+      <c r="J362" s="17" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="363" spans="1:104">
@@ -18608,8 +18609,8 @@
       <c r="H363" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="J363" s="18" t="s">
-        <v>1573</v>
+      <c r="J363" s="17" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="364" spans="1:104" ht="31.5">
@@ -18628,8 +18629,8 @@
       <c r="H364" s="14" t="s">
         <v>1244</v>
       </c>
-      <c r="J364" s="18" t="s">
-        <v>1695</v>
+      <c r="J364" s="17" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="365" spans="1:104" ht="31.5">
@@ -18648,8 +18649,8 @@
       <c r="H365" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="J365" s="18" t="s">
-        <v>1696</v>
+      <c r="J365" s="17" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="366" spans="1:104" ht="31.5">
@@ -18668,8 +18669,8 @@
       <c r="H366" s="14" t="s">
         <v>1246</v>
       </c>
-      <c r="J366" s="18" t="s">
-        <v>1697</v>
+      <c r="J366" s="17" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="367" spans="1:104" ht="31.5">
@@ -18688,8 +18689,8 @@
       <c r="H367" s="14" t="s">
         <v>1247</v>
       </c>
-      <c r="J367" s="18" t="s">
-        <v>1698</v>
+      <c r="J367" s="17" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="368" spans="1:104" ht="94.5">
@@ -18711,8 +18712,8 @@
       <c r="H368" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="J368" s="18" t="s">
-        <v>1699</v>
+      <c r="J368" s="17" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="369" spans="1:104" ht="47.25">
@@ -18731,8 +18732,8 @@
       <c r="H369" s="14" t="s">
         <v>1249</v>
       </c>
-      <c r="J369" s="18" t="s">
-        <v>1700</v>
+      <c r="J369" s="17" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="370" spans="1:104" s="10" customFormat="1">
@@ -18753,10 +18754,10 @@
         <v>1250</v>
       </c>
       <c r="H370"/>
-      <c r="I370" s="20" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J370" s="18"/>
+      <c r="I370" s="19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J370" s="17"/>
       <c r="K370"/>
       <c r="L370"/>
       <c r="M370"/>
@@ -18868,8 +18869,8 @@
       <c r="H371" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="J371" s="18" t="s">
-        <v>1702</v>
+      <c r="J371" s="17" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="372" spans="1:104">
@@ -18885,8 +18886,8 @@
       <c r="H372" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="J372" s="18" t="s">
-        <v>1573</v>
+      <c r="J372" s="17" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="373" spans="1:104" ht="31.5">
@@ -18905,8 +18906,8 @@
       <c r="H373" s="14" t="s">
         <v>1252</v>
       </c>
-      <c r="J373" s="18" t="s">
-        <v>1703</v>
+      <c r="J373" s="17" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="374" spans="1:104" ht="63">
@@ -18925,8 +18926,8 @@
       <c r="H374" s="14" t="s">
         <v>1253</v>
       </c>
-      <c r="J374" s="18" t="s">
-        <v>1704</v>
+      <c r="J374" s="17" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="375" spans="1:104" ht="47.25">
@@ -18945,8 +18946,8 @@
       <c r="H375" s="14" t="s">
         <v>1254</v>
       </c>
-      <c r="J375" s="18" t="s">
-        <v>1705</v>
+      <c r="J375" s="17" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="376" spans="1:104" ht="47.25">
@@ -18965,8 +18966,8 @@
       <c r="H376" s="14" t="s">
         <v>1255</v>
       </c>
-      <c r="J376" s="18" t="s">
-        <v>1706</v>
+      <c r="J376" s="17" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="377" spans="1:104" ht="31.5">
@@ -18985,8 +18986,8 @@
       <c r="H377" s="14" t="s">
         <v>1256</v>
       </c>
-      <c r="J377" s="18" t="s">
-        <v>1707</v>
+      <c r="J377" s="17" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="378" spans="1:104" ht="47.25">
@@ -19005,8 +19006,8 @@
       <c r="H378" s="14" t="s">
         <v>1257</v>
       </c>
-      <c r="J378" s="18" t="s">
-        <v>1708</v>
+      <c r="J378" s="17" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="379" spans="1:104" ht="63">
@@ -19025,8 +19026,8 @@
       <c r="H379" s="14" t="s">
         <v>1258</v>
       </c>
-      <c r="J379" s="18" t="s">
-        <v>1709</v>
+      <c r="J379" s="17" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="380" spans="1:104" ht="31.5">
@@ -19045,8 +19046,8 @@
       <c r="H380" s="14" t="s">
         <v>1259</v>
       </c>
-      <c r="J380" s="18" t="s">
-        <v>1710</v>
+      <c r="J380" s="17" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="381" spans="1:104" s="10" customFormat="1">
@@ -19067,10 +19068,10 @@
         <v>1260</v>
       </c>
       <c r="H381" s="14"/>
-      <c r="I381" s="20" t="s">
-        <v>1711</v>
-      </c>
-      <c r="J381" s="18"/>
+      <c r="I381" s="19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J381" s="17"/>
       <c r="K381"/>
       <c r="L381"/>
       <c r="M381"/>
@@ -19182,8 +19183,8 @@
       <c r="H382" s="14" t="s">
         <v>1261</v>
       </c>
-      <c r="J382" s="18" t="s">
-        <v>1712</v>
+      <c r="J382" s="17" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="383" spans="1:104" ht="31.5">
@@ -19202,8 +19203,8 @@
       <c r="H383" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="J383" s="18" t="s">
-        <v>1713</v>
+      <c r="J383" s="17" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="384" spans="1:104" s="8" customFormat="1" ht="31.5">
@@ -19224,10 +19225,10 @@
         <v>1329</v>
       </c>
       <c r="H384" s="14"/>
-      <c r="I384" s="21" t="s">
-        <v>1714</v>
-      </c>
-      <c r="J384" s="18"/>
+      <c r="I384" s="20" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J384" s="17"/>
       <c r="K384"/>
       <c r="L384"/>
       <c r="M384"/>
@@ -19341,10 +19342,10 @@
         <v>1265</v>
       </c>
       <c r="H385" s="14"/>
-      <c r="I385" s="20" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J385" s="18"/>
+      <c r="I385" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J385" s="17"/>
       <c r="K385"/>
       <c r="L385"/>
       <c r="M385"/>
@@ -19456,8 +19457,8 @@
       <c r="H386" s="14" t="s">
         <v>1266</v>
       </c>
-      <c r="J386" s="18" t="s">
-        <v>1716</v>
+      <c r="J386" s="17" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="387" spans="1:104">
@@ -19476,8 +19477,8 @@
       <c r="H387" s="14" t="s">
         <v>1267</v>
       </c>
-      <c r="J387" s="18" t="s">
-        <v>1717</v>
+      <c r="J387" s="17" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="388" spans="1:104" ht="31.5">
@@ -19496,8 +19497,8 @@
       <c r="H388" s="14" t="s">
         <v>1268</v>
       </c>
-      <c r="J388" s="18" t="s">
-        <v>1718</v>
+      <c r="J388" s="17" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="389" spans="1:104" ht="63">
@@ -19516,8 +19517,8 @@
       <c r="H389" s="14" t="s">
         <v>1269</v>
       </c>
-      <c r="J389" s="18" t="s">
-        <v>1719</v>
+      <c r="J389" s="17" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="390" spans="1:104" ht="47.25">
@@ -19536,8 +19537,8 @@
       <c r="H390" s="14" t="s">
         <v>1270</v>
       </c>
-      <c r="J390" s="18" t="s">
-        <v>1720</v>
+      <c r="J390" s="17" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="391" spans="1:104" ht="31.5">
@@ -19556,8 +19557,8 @@
       <c r="H391" s="14" t="s">
         <v>1271</v>
       </c>
-      <c r="J391" s="18" t="s">
-        <v>1721</v>
+      <c r="J391" s="17" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="392" spans="1:104" s="10" customFormat="1">
@@ -19578,10 +19579,10 @@
         <v>1272</v>
       </c>
       <c r="H392" s="14"/>
-      <c r="I392" s="20" t="s">
-        <v>1722</v>
-      </c>
-      <c r="J392" s="18"/>
+      <c r="I392" s="19" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J392" s="17"/>
       <c r="K392"/>
       <c r="L392"/>
       <c r="M392"/>
@@ -19693,8 +19694,8 @@
       <c r="H393" s="14" t="s">
         <v>1273</v>
       </c>
-      <c r="J393" s="18" t="s">
-        <v>1723</v>
+      <c r="J393" s="17" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="394" spans="1:104">
@@ -19710,8 +19711,8 @@
       <c r="H394" s="14" t="s">
         <v>1274</v>
       </c>
-      <c r="J394" s="18" t="s">
-        <v>1724</v>
+      <c r="J394" s="17" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="395" spans="1:104" ht="47.25">
@@ -19730,8 +19731,8 @@
       <c r="H395" s="14" t="s">
         <v>1275</v>
       </c>
-      <c r="J395" s="18" t="s">
-        <v>1725</v>
+      <c r="J395" s="17" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="396" spans="1:104" ht="47.25">
@@ -19750,8 +19751,8 @@
       <c r="H396" s="14" t="s">
         <v>1276</v>
       </c>
-      <c r="J396" s="18" t="s">
-        <v>1726</v>
+      <c r="J396" s="17" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="397" spans="1:104" ht="47.25">
@@ -19770,8 +19771,8 @@
       <c r="H397" s="14" t="s">
         <v>1277</v>
       </c>
-      <c r="J397" s="18" t="s">
-        <v>1727</v>
+      <c r="J397" s="17" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="398" spans="1:104" ht="47.25">
@@ -19790,8 +19791,8 @@
       <c r="H398" s="14" t="s">
         <v>1278</v>
       </c>
-      <c r="J398" s="22" t="s">
-        <v>1728</v>
+      <c r="J398" s="21" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="399" spans="1:104" s="10" customFormat="1">
@@ -19812,10 +19813,10 @@
         <v>1279</v>
       </c>
       <c r="H399" s="14"/>
-      <c r="I399" s="20" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J399" s="18"/>
+      <c r="I399" s="19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J399" s="17"/>
       <c r="K399"/>
       <c r="L399"/>
       <c r="M399"/>
@@ -19927,8 +19928,8 @@
       <c r="H400" s="14" t="s">
         <v>1280</v>
       </c>
-      <c r="J400" s="18" t="s">
-        <v>1730</v>
+      <c r="J400" s="17" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="401" spans="1:104">
@@ -19944,8 +19945,8 @@
       <c r="H401" s="14" t="s">
         <v>1274</v>
       </c>
-      <c r="J401" s="18" t="s">
-        <v>1724</v>
+      <c r="J401" s="17" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="402" spans="1:104" ht="47.25">
@@ -19964,8 +19965,8 @@
       <c r="H402" s="14" t="s">
         <v>1281</v>
       </c>
-      <c r="J402" s="18" t="s">
-        <v>1731</v>
+      <c r="J402" s="17" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="403" spans="1:104" ht="47.25">
@@ -19984,8 +19985,8 @@
       <c r="H403" s="14" t="s">
         <v>1282</v>
       </c>
-      <c r="J403" s="18" t="s">
-        <v>1732</v>
+      <c r="J403" s="17" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="404" spans="1:104" ht="47.25">
@@ -20004,8 +20005,8 @@
       <c r="H404" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="J404" s="18" t="s">
-        <v>1733</v>
+      <c r="J404" s="17" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="405" spans="1:104" ht="47.25">
@@ -20024,8 +20025,8 @@
       <c r="H405" s="14" t="s">
         <v>1284</v>
       </c>
-      <c r="J405" s="18" t="s">
-        <v>1734</v>
+      <c r="J405" s="17" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="406" spans="1:104" ht="47.25">
@@ -20044,8 +20045,8 @@
       <c r="H406" s="14" t="s">
         <v>1278</v>
       </c>
-      <c r="J406" s="18" t="s">
-        <v>1735</v>
+      <c r="J406" s="17" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="407" spans="1:104" s="10" customFormat="1">
@@ -20066,10 +20067,10 @@
         <v>1285</v>
       </c>
       <c r="H407" s="14"/>
-      <c r="I407" s="20" t="s">
-        <v>1736</v>
-      </c>
-      <c r="J407" s="18"/>
+      <c r="I407" s="19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J407" s="17"/>
       <c r="K407"/>
       <c r="L407"/>
       <c r="M407"/>
@@ -20181,8 +20182,8 @@
       <c r="H408" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="J408" s="18" t="s">
-        <v>1737</v>
+      <c r="J408" s="17" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="409" spans="1:104" ht="31.5">
@@ -20201,8 +20202,8 @@
       <c r="H409" s="14" t="s">
         <v>1287</v>
       </c>
-      <c r="J409" s="18" t="s">
-        <v>1738</v>
+      <c r="J409" s="17" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="410" spans="1:104" ht="31.5">
@@ -20221,8 +20222,8 @@
       <c r="H410" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="J410" s="18" t="s">
-        <v>1739</v>
+      <c r="J410" s="17" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="411" spans="1:104" ht="47.25">
@@ -20241,8 +20242,8 @@
       <c r="H411" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="J411" s="18" t="s">
-        <v>1740</v>
+      <c r="J411" s="17" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="412" spans="1:104" ht="31.5">
@@ -20261,8 +20262,8 @@
       <c r="H412" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="J412" s="18" t="s">
-        <v>1741</v>
+      <c r="J412" s="17" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="413" spans="1:104" s="10" customFormat="1" ht="31.5">
@@ -20283,10 +20284,10 @@
         <v>1263</v>
       </c>
       <c r="H413" s="14"/>
-      <c r="I413" s="20" t="s">
-        <v>1742</v>
-      </c>
-      <c r="J413" s="18"/>
+      <c r="I413" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J413" s="17"/>
       <c r="K413"/>
       <c r="L413"/>
       <c r="M413"/>
@@ -20398,8 +20399,8 @@
       <c r="H414" s="16" t="s">
         <v>1264</v>
       </c>
-      <c r="J414" s="18" t="s">
-        <v>1743</v>
+      <c r="J414" s="17" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="415" spans="1:104" s="8" customFormat="1" ht="47.25">
@@ -20420,10 +20421,10 @@
         <v>1333</v>
       </c>
       <c r="H415" s="14"/>
-      <c r="I415" s="21" t="s">
-        <v>1744</v>
-      </c>
-      <c r="J415" s="18"/>
+      <c r="I415" s="20" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J415" s="17"/>
       <c r="K415"/>
       <c r="L415"/>
       <c r="M415"/>
@@ -20537,10 +20538,10 @@
         <v>1291</v>
       </c>
       <c r="H416" s="14"/>
-      <c r="I416" s="20" t="s">
-        <v>1745</v>
-      </c>
-      <c r="J416" s="18"/>
+      <c r="I416" s="19" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J416" s="17"/>
       <c r="K416"/>
       <c r="L416"/>
       <c r="M416"/>
@@ -20652,8 +20653,8 @@
       <c r="H417" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="J417" s="18" t="s">
-        <v>1746</v>
+      <c r="J417" s="17" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="418" spans="1:104">
@@ -20669,8 +20670,8 @@
       <c r="H418" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="J418" s="18" t="s">
-        <v>1747</v>
+      <c r="J418" s="17" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="419" spans="1:104" ht="63">
@@ -20689,8 +20690,8 @@
       <c r="H419" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="J419" s="18" t="s">
-        <v>1748</v>
+      <c r="J419" s="17" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="420" spans="1:104" ht="31.5">
@@ -20709,8 +20710,8 @@
       <c r="H420" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="J420" s="18" t="s">
-        <v>1749</v>
+      <c r="J420" s="17" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="421" spans="1:104" ht="47.25">
@@ -20729,8 +20730,8 @@
       <c r="H421" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="J421" s="18" t="s">
-        <v>1750</v>
+      <c r="J421" s="17" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="422" spans="1:104" ht="63">
@@ -20752,8 +20753,8 @@
       <c r="H422" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="J422" s="18" t="s">
-        <v>1751</v>
+      <c r="J422" s="17" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="423" spans="1:104" ht="47.25">
@@ -20769,8 +20770,8 @@
       <c r="H423" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="J423" s="18" t="s">
-        <v>1752</v>
+      <c r="J423" s="17" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="424" spans="1:104" ht="63">
@@ -20789,8 +20790,8 @@
       <c r="H424" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="J424" s="18" t="s">
-        <v>1753</v>
+      <c r="J424" s="17" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="425" spans="1:104" ht="47.25">
@@ -20809,8 +20810,8 @@
       <c r="H425" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="J425" s="18" t="s">
-        <v>1754</v>
+      <c r="J425" s="17" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="426" spans="1:104" s="10" customFormat="1">
@@ -20831,10 +20832,10 @@
         <v>1301</v>
       </c>
       <c r="H426" s="14"/>
-      <c r="I426" s="20" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J426" s="18"/>
+      <c r="I426" s="19" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J426" s="17"/>
       <c r="K426"/>
       <c r="L426"/>
       <c r="M426"/>
@@ -20949,8 +20950,8 @@
       <c r="H427" s="14" t="s">
         <v>1302</v>
       </c>
-      <c r="J427" s="18" t="s">
-        <v>1756</v>
+      <c r="J427" s="17" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="428" spans="1:104">
@@ -20966,8 +20967,8 @@
       <c r="H428" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="J428" s="18" t="s">
-        <v>1747</v>
+      <c r="J428" s="17" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="429" spans="1:104" ht="31.5">
@@ -20986,8 +20987,8 @@
       <c r="H429" s="14" t="s">
         <v>1303</v>
       </c>
-      <c r="J429" s="18" t="s">
-        <v>1757</v>
+      <c r="J429" s="17" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="430" spans="1:104" ht="47.25">
@@ -21006,8 +21007,8 @@
       <c r="H430" s="14" t="s">
         <v>1304</v>
       </c>
-      <c r="J430" s="18" t="s">
-        <v>1758</v>
+      <c r="J430" s="17" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="431" spans="1:104" ht="63">
@@ -21026,8 +21027,8 @@
       <c r="H431" s="14" t="s">
         <v>1305</v>
       </c>
-      <c r="J431" s="18" t="s">
-        <v>1759</v>
+      <c r="J431" s="17" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="432" spans="1:104" ht="47.25">
@@ -21046,8 +21047,8 @@
       <c r="H432" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="J432" s="18" t="s">
-        <v>1760</v>
+      <c r="J432" s="17" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="433" spans="1:104" s="10" customFormat="1">
@@ -21068,10 +21069,10 @@
         <v>1306</v>
       </c>
       <c r="H433" s="14"/>
-      <c r="I433" s="20" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J433" s="18"/>
+      <c r="I433" s="19" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J433" s="17"/>
       <c r="K433"/>
       <c r="L433"/>
       <c r="M433"/>
@@ -21183,8 +21184,8 @@
       <c r="H434" s="14" t="s">
         <v>1307</v>
       </c>
-      <c r="J434" s="18" t="s">
-        <v>1762</v>
+      <c r="J434" s="17" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="435" spans="1:104">
@@ -21200,8 +21201,8 @@
       <c r="H435" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="J435" s="18" t="s">
-        <v>1573</v>
+      <c r="J435" s="17" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="436" spans="1:104" ht="63">
@@ -21223,8 +21224,8 @@
       <c r="H436" s="14" t="s">
         <v>1308</v>
       </c>
-      <c r="J436" s="18" t="s">
-        <v>1763</v>
+      <c r="J436" s="17" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="437" spans="1:104" ht="31.5">
@@ -21243,8 +21244,8 @@
       <c r="H437" s="14" t="s">
         <v>1309</v>
       </c>
-      <c r="J437" s="18" t="s">
-        <v>1764</v>
+      <c r="J437" s="17" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="438" spans="1:104" ht="31.5">
@@ -21263,8 +21264,8 @@
       <c r="H438" s="14" t="s">
         <v>1310</v>
       </c>
-      <c r="J438" s="18" t="s">
-        <v>1765</v>
+      <c r="J438" s="17" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="439" spans="1:104" ht="47.25">
@@ -21283,8 +21284,8 @@
       <c r="H439" s="14" t="s">
         <v>1311</v>
       </c>
-      <c r="J439" s="18" t="s">
-        <v>1766</v>
+      <c r="J439" s="17" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="440" spans="1:104" ht="47.25">
@@ -21303,8 +21304,8 @@
       <c r="H440" s="14" t="s">
         <v>1312</v>
       </c>
-      <c r="J440" s="18" t="s">
-        <v>1767</v>
+      <c r="J440" s="17" t="s">
+        <v>1765</v>
       </c>
     </row>
   </sheetData>

--- a/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M-Czech_version.xlsx
+++ b/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M-Czech_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70787FF3-06D5-4AA2-944D-C8368B21F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D8639D-51A3-460B-B596-7757ED550DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
   </bookViews>
@@ -6023,7 +6023,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
